--- a/exercise_OECD_data/2-Final_Data/va_shares_allyears.xlsx
+++ b/exercise_OECD_data/2-Final_Data/va_shares_allyears.xlsx
@@ -485,10 +485,10 @@
         <v>0.589508626720571</v>
       </c>
       <c r="O2">
-        <v>0.61621557361165</v>
+        <v>0.616215573611644</v>
       </c>
       <c r="P2">
-        <v>0.43723318366977</v>
+        <v>0.437233183669777</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         <v>0.336047683639717</v>
       </c>
       <c r="D3">
-        <v>0.5350140459569071</v>
+        <v>0.535014045956907</v>
       </c>
       <c r="E3">
         <v>0.6412910320467941</v>
@@ -537,10 +537,10 @@
         <v>0.352676542959354</v>
       </c>
       <c r="O3">
-        <v>0.627397102411658</v>
+        <v>0.627397102411659</v>
       </c>
       <c r="P3">
-        <v>0.107559746495422</v>
+        <v>0.10755974649542</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         <v>0.332051289046199</v>
       </c>
       <c r="I4">
-        <v>0.539374375751209</v>
+        <v>0.5393743757512089</v>
       </c>
       <c r="J4">
         <v>0.309392788374501</v>
@@ -592,7 +592,7 @@
         <v>0.615994609662787</v>
       </c>
       <c r="P4">
-        <v>0.536006070733567</v>
+        <v>0.536006070733572</v>
       </c>
     </row>
     <row r="5">
@@ -641,10 +641,10 @@
         <v>0.461114505550347</v>
       </c>
       <c r="O5">
-        <v>0.60772220436924</v>
+        <v>0.607722204369235</v>
       </c>
       <c r="P5">
-        <v>0.312477427177278</v>
+        <v>0.312477427177281</v>
       </c>
     </row>
     <row r="6">
@@ -669,7 +669,7 @@
         <v>0.392130937921646</v>
       </c>
       <c r="G6">
-        <v>0.6104460202839021</v>
+        <v>0.610446020283902</v>
       </c>
       <c r="H6">
         <v>0.210889352091276</v>
@@ -693,10 +693,10 @@
         <v>0.42737226809363</v>
       </c>
       <c r="O6">
-        <v>0.6158454097713531</v>
+        <v>0.6158454097713451</v>
       </c>
       <c r="P6">
-        <v>0.712294845553517</v>
+        <v>0.712294845553514</v>
       </c>
     </row>
     <row r="7">
@@ -745,7 +745,7 @@
         <v>0.604992763315079</v>
       </c>
       <c r="O7">
-        <v>0.62504357238828</v>
+        <v>0.625043572388283</v>
       </c>
       <c r="P7">
         <v>0.381196239724356</v>
@@ -797,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0.614590423797738</v>
+        <v>0.614590423797742</v>
       </c>
       <c r="P8">
-        <v>0.564782889636317</v>
+        <v>0.5647828896363291</v>
       </c>
     </row>
     <row r="9">
@@ -849,10 +849,10 @@
         <v>0.627807109477828</v>
       </c>
       <c r="O9">
-        <v>0.632621501540103</v>
+        <v>0.63262150154011</v>
       </c>
       <c r="P9">
-        <v>0.314610601287072</v>
+        <v>0.314610601287076</v>
       </c>
     </row>
     <row r="10">
@@ -901,10 +901,10 @@
         <v>0.497548593103343</v>
       </c>
       <c r="O10">
-        <v>0.607123403536088</v>
+        <v>0.607123403536093</v>
       </c>
       <c r="P10">
-        <v>0.820875886424095</v>
+        <v>0.820875886424091</v>
       </c>
     </row>
     <row r="11">
@@ -953,10 +953,10 @@
         <v>0.314527791832089</v>
       </c>
       <c r="O11">
-        <v>0.624088331571196</v>
+        <v>0.624088331571199</v>
       </c>
       <c r="P11">
-        <v>0.452230038394802</v>
+        <v>0.452230038394794</v>
       </c>
     </row>
     <row r="12">
@@ -1005,10 +1005,10 @@
         <v>0.24109959642255</v>
       </c>
       <c r="O12">
-        <v>0.591450290366494</v>
+        <v>0.591450290366496</v>
       </c>
       <c r="P12">
-        <v>0.697647703633727</v>
+        <v>0.697647703633738</v>
       </c>
     </row>
     <row r="13">
@@ -1057,10 +1057,10 @@
         <v>0.582654627334107</v>
       </c>
       <c r="O13">
-        <v>0.615968724181253</v>
+        <v>0.615968724181259</v>
       </c>
       <c r="P13">
-        <v>0.476121315222108</v>
+        <v>0.476121315222098</v>
       </c>
     </row>
     <row r="14">
@@ -1109,7 +1109,7 @@
         <v>0.511084571614543</v>
       </c>
       <c r="O14">
-        <v>0.6104747012321931</v>
+        <v>0.6104747012321911</v>
       </c>
       <c r="P14">
         <v>0.230859535838676</v>
@@ -1161,10 +1161,10 @@
         <v>0.822785807100812</v>
       </c>
       <c r="O15">
-        <v>0.616047344423648</v>
+        <v>0.6160473444236479</v>
       </c>
       <c r="P15">
-        <v>0.329335351621613</v>
+        <v>0.329335351621619</v>
       </c>
     </row>
     <row r="16">
@@ -1186,7 +1186,7 @@
         <v>0.745316525917381</v>
       </c>
       <c r="F16">
-        <v>0.088875748110284</v>
+        <v>0.08887574811028399</v>
       </c>
       <c r="G16">
         <v>0.512204545982091</v>
@@ -1210,13 +1210,13 @@
         <v>0.14017686545569</v>
       </c>
       <c r="N16">
-        <v>0.7584340837902101</v>
+        <v>0.75843408379021</v>
       </c>
       <c r="O16">
         <v>0.616820817957741</v>
       </c>
       <c r="P16">
-        <v>0.330539010558147</v>
+        <v>0.330539010558146</v>
       </c>
     </row>
     <row r="17">
@@ -1265,10 +1265,10 @@
         <v>0.509133967782752</v>
       </c>
       <c r="O17">
-        <v>0.612426411123444</v>
+        <v>0.612426411123425</v>
       </c>
       <c r="P17">
-        <v>0.22127047145395</v>
+        <v>0.221270471453954</v>
       </c>
     </row>
     <row r="18">
@@ -1320,7 +1320,7 @@
         <v>0.614062326140737</v>
       </c>
       <c r="P18">
-        <v>0.50657571482798</v>
+        <v>0.506575714827971</v>
       </c>
     </row>
     <row r="19">
@@ -1369,7 +1369,7 @@
         <v>0.290198015134387</v>
       </c>
       <c r="O19">
-        <v>0.610070770898405</v>
+        <v>0.610070770898412</v>
       </c>
       <c r="P19">
         <v>0.130672056470649</v>
@@ -1421,10 +1421,10 @@
         <v>0.657016900682315</v>
       </c>
       <c r="O20">
-        <v>0.594680358240585</v>
+        <v>0.594680358240592</v>
       </c>
       <c r="P20">
-        <v>0.591966135313312</v>
+        <v>0.591966135313309</v>
       </c>
     </row>
     <row r="21">
@@ -1473,10 +1473,10 @@
         <v>0.422329037865444</v>
       </c>
       <c r="O21">
-        <v>0.61751271262441</v>
+        <v>0.617512712624406</v>
       </c>
       <c r="P21">
-        <v>0.359260259946414</v>
+        <v>0.359260259946412</v>
       </c>
     </row>
     <row r="22">
@@ -1525,10 +1525,10 @@
         <v>0.8351600998550071</v>
       </c>
       <c r="O22">
-        <v>0.627652779608709</v>
+        <v>0.627652779608701</v>
       </c>
       <c r="P22">
-        <v>0.516024171165387</v>
+        <v>0.516024171165377</v>
       </c>
     </row>
     <row r="23">
@@ -1577,10 +1577,10 @@
         <v>0.706012589705295</v>
       </c>
       <c r="O23">
-        <v>0.614708334830136</v>
+        <v>0.614708334830145</v>
       </c>
       <c r="P23">
-        <v>0.376230191721753</v>
+        <v>0.376230191721743</v>
       </c>
     </row>
     <row r="24">
@@ -1629,10 +1629,10 @@
         <v>0.957084270951253</v>
       </c>
       <c r="O24">
-        <v>0.613944687993211</v>
+        <v>0.613944687993216</v>
       </c>
       <c r="P24">
-        <v>0.363533360418672</v>
+        <v>0.363533360418674</v>
       </c>
     </row>
     <row r="25">
@@ -1681,10 +1681,10 @@
         <v>0.56523539066621</v>
       </c>
       <c r="O25">
-        <v>0.592717021821727</v>
+        <v>0.592717021821715</v>
       </c>
       <c r="P25">
-        <v>0.356320715829072</v>
+        <v>0.356320715829061</v>
       </c>
     </row>
     <row r="26">
@@ -1733,7 +1733,7 @@
         <v>0.457318809882316</v>
       </c>
       <c r="O26">
-        <v>0.625492320932402</v>
+        <v>0.625492320932391</v>
       </c>
       <c r="P26">
         <v>0.293211040494918</v>
@@ -1785,10 +1785,10 @@
         <v>0.720178212562786</v>
       </c>
       <c r="O27">
-        <v>0.629817507333479</v>
+        <v>0.629817507333481</v>
       </c>
       <c r="P27">
-        <v>0.555798241070661</v>
+        <v>0.555798241070664</v>
       </c>
     </row>
     <row r="28">
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0.616552779752845</v>
+        <v>0.6165527797528551</v>
       </c>
       <c r="P28">
-        <v>0.365693010351823</v>
+        <v>0.365693010351816</v>
       </c>
     </row>
     <row r="29">
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.601094383232669</v>
+        <v>0.601094383232688</v>
       </c>
       <c r="P29">
-        <v>0.489713534576058</v>
+        <v>0.489713534576053</v>
       </c>
     </row>
     <row r="30">
@@ -1941,10 +1941,10 @@
         <v>0.822646162592668</v>
       </c>
       <c r="O30">
-        <v>0.613110063823433</v>
+        <v>0.613110063823444</v>
       </c>
       <c r="P30">
-        <v>0.861549440892071</v>
+        <v>0.861549440892074</v>
       </c>
     </row>
     <row r="31">
@@ -1969,7 +1969,7 @@
         <v>0.282617012108511</v>
       </c>
       <c r="G31">
-        <v>0.516261830014553</v>
+        <v>0.5162618300145529</v>
       </c>
       <c r="H31">
         <v>0.220621162300116</v>
@@ -1990,13 +1990,13 @@
         <v>0.0280969148954609</v>
       </c>
       <c r="N31">
-        <v>0.5220824883326291</v>
+        <v>0.522082488332629</v>
       </c>
       <c r="O31">
-        <v>0.601230544807029</v>
+        <v>0.601230544807024</v>
       </c>
       <c r="P31">
-        <v>0.470052479453868</v>
+        <v>0.470052479453873</v>
       </c>
     </row>
     <row r="32">
@@ -2036,7 +2036,7 @@
         <v>0.192289164562755</v>
       </c>
       <c r="L32">
-        <v>0.577177703441416</v>
+        <v>0.5771777034414159</v>
       </c>
       <c r="M32">
         <v>0.269493247404964</v>
@@ -2045,10 +2045,10 @@
         <v>0.385635490974244</v>
       </c>
       <c r="O32">
-        <v>0.608561998214</v>
+        <v>0.608561998213998</v>
       </c>
       <c r="P32">
-        <v>0.529996028914418</v>
+        <v>0.529996028914416</v>
       </c>
     </row>
     <row r="33">
@@ -2097,10 +2097,10 @@
         <v>0.235224780693573</v>
       </c>
       <c r="O33">
-        <v>0.612753496676559</v>
+        <v>0.612753496676556</v>
       </c>
       <c r="P33">
-        <v>0.44101465361353</v>
+        <v>0.441014653613527</v>
       </c>
     </row>
     <row r="34">
@@ -2146,10 +2146,10 @@
         <v>0.460969936158051</v>
       </c>
       <c r="N34">
-        <v>0.538435972696437</v>
+        <v>0.5384359726964369</v>
       </c>
       <c r="O34">
-        <v>0.624364715522413</v>
+        <v>0.624364715522414</v>
       </c>
       <c r="P34">
         <v>0.369227709462004</v>
@@ -2201,10 +2201,10 @@
         <v>0.464739156204939</v>
       </c>
       <c r="O35">
-        <v>0.613305932694159</v>
+        <v>0.613305932694152</v>
       </c>
       <c r="P35">
-        <v>0.316309806380382</v>
+        <v>0.316309806380381</v>
       </c>
     </row>
     <row r="36">
@@ -2253,10 +2253,10 @@
         <v>0.378153405967149</v>
       </c>
       <c r="O36">
-        <v>0.614362712544993</v>
+        <v>0.614362712544994</v>
       </c>
       <c r="P36">
-        <v>0.293500984888781</v>
+        <v>0.293500984888778</v>
       </c>
     </row>
     <row r="37">
@@ -2305,7 +2305,7 @@
         <v>0.31600720461029</v>
       </c>
       <c r="O37">
-        <v>0.619183079504224</v>
+        <v>0.619183079504234</v>
       </c>
       <c r="P37">
         <v>0.458539892316831</v>
@@ -2357,10 +2357,10 @@
         <v>0.426324256589936</v>
       </c>
       <c r="O38">
-        <v>0.628066562112566</v>
+        <v>0.6280665621125719</v>
       </c>
       <c r="P38">
-        <v>0.661391519138043</v>
+        <v>0.661391519138026</v>
       </c>
     </row>
     <row r="39">
@@ -2409,10 +2409,10 @@
         <v>0.42750584476431</v>
       </c>
       <c r="O39">
-        <v>0.617205420564912</v>
+        <v>0.617205420564914</v>
       </c>
       <c r="P39">
-        <v>0.442760391575423</v>
+        <v>0.442760391575404</v>
       </c>
     </row>
     <row r="40">
@@ -2437,10 +2437,10 @@
         <v>0.0614158395471255</v>
       </c>
       <c r="G40">
-        <v>0.5667037946507491</v>
+        <v>0.566703794650749</v>
       </c>
       <c r="H40">
-        <v>0.5298414670552401</v>
+        <v>0.52984146705524</v>
       </c>
       <c r="I40">
         <v>0.435853319984378</v>
@@ -2461,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>0.603274670824176</v>
+        <v>0.603274670824169</v>
       </c>
       <c r="P40">
-        <v>0.607209336727602</v>
+        <v>0.607209336727596</v>
       </c>
     </row>
     <row r="41">
@@ -2513,10 +2513,10 @@
         <v>0.638999907457761</v>
       </c>
       <c r="O41">
-        <v>0.607031783743791</v>
+        <v>0.607031783743794</v>
       </c>
       <c r="P41">
-        <v>0.351468684052788</v>
+        <v>0.351468684052787</v>
       </c>
     </row>
     <row r="42">
@@ -2532,7 +2532,7 @@
         <v>0.236983721086376</v>
       </c>
       <c r="D42">
-        <v>0.5907579728626931</v>
+        <v>0.590757972862693</v>
       </c>
       <c r="E42">
         <v>0.729322207978912</v>
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0.610660984887589</v>
+        <v>0.610660984887574</v>
       </c>
       <c r="P42">
-        <v>0.403576668759006</v>
+        <v>0.403576668759018</v>
       </c>
     </row>
     <row r="43">
@@ -2614,13 +2614,13 @@
         <v>0.309505513577543</v>
       </c>
       <c r="N43">
-        <v>0.538270459912705</v>
+        <v>0.5382704599127049</v>
       </c>
       <c r="O43">
         <v>0.611525832761973</v>
       </c>
       <c r="P43">
-        <v>0.368424652252644</v>
+        <v>0.368424652252647</v>
       </c>
     </row>
     <row r="44">
@@ -2672,7 +2672,7 @@
         <v>0.607256671644532</v>
       </c>
       <c r="P44">
-        <v>0.447264706309058</v>
+        <v>0.447264706309073</v>
       </c>
     </row>
     <row r="45">
@@ -2724,7 +2724,7 @@
         <v>0.625972716135389</v>
       </c>
       <c r="P45">
-        <v>0.534311694690552</v>
+        <v>0.5343116946905599</v>
       </c>
     </row>
     <row r="46">
@@ -2773,10 +2773,10 @@
         <v>0.6736488211946901</v>
       </c>
       <c r="O46">
-        <v>0.589883095442566</v>
+        <v>0.589883095442563</v>
       </c>
       <c r="P46">
-        <v>0.532110595907444</v>
+        <v>0.532110595907441</v>
       </c>
     </row>
     <row r="47">
@@ -2825,10 +2825,10 @@
         <v>0.373428431418967</v>
       </c>
       <c r="O47">
-        <v>0.622833901538003</v>
+        <v>0.622833901537998</v>
       </c>
       <c r="P47">
-        <v>0.348857757882937</v>
+        <v>0.348857757882942</v>
       </c>
     </row>
     <row r="48">
@@ -2880,7 +2880,7 @@
         <v>0.59893618889361</v>
       </c>
       <c r="P48">
-        <v>0.449859684222641</v>
+        <v>0.449859684222634</v>
       </c>
     </row>
     <row r="49">
@@ -2929,10 +2929,10 @@
         <v>0.513752109446463</v>
       </c>
       <c r="O49">
-        <v>0.608833501228801</v>
+        <v>0.608833501228807</v>
       </c>
       <c r="P49">
-        <v>0.434161383955777</v>
+        <v>0.434161383955767</v>
       </c>
     </row>
     <row r="50">
@@ -2981,10 +2981,10 @@
         <v>0.456546765999025</v>
       </c>
       <c r="O50">
-        <v>0.6099777401304</v>
+        <v>0.609977740130393</v>
       </c>
       <c r="P50">
-        <v>0.451753418228385</v>
+        <v>0.451753418228396</v>
       </c>
     </row>
     <row r="51">
@@ -3033,10 +3033,10 @@
         <v>0.243831925704477</v>
       </c>
       <c r="O51">
-        <v>0.612484405943109</v>
+        <v>0.612484405943115</v>
       </c>
       <c r="P51">
-        <v>0.492681585267729</v>
+        <v>0.492681585267713</v>
       </c>
     </row>
     <row r="52">
@@ -3449,7 +3449,7 @@
         <v>0.492710913769279</v>
       </c>
       <c r="O59">
-        <v>0.5014002083274211</v>
+        <v>0.501400208327421</v>
       </c>
       <c r="P59">
         <v>0.49827252484963</v>
@@ -3581,7 +3581,7 @@
         <v>0.521514313282113</v>
       </c>
       <c r="G62">
-        <v>0.619778522814383</v>
+        <v>0.6197785228143829</v>
       </c>
       <c r="H62">
         <v>0.495415897246571</v>
@@ -3764,7 +3764,7 @@
         <v>0.597426721138146</v>
       </c>
       <c r="P65">
-        <v>0.5488785566030801</v>
+        <v>0.54887855660308</v>
       </c>
     </row>
     <row r="66">
@@ -3917,7 +3917,7 @@
         <v>0.564870285021161</v>
       </c>
       <c r="O68">
-        <v>0.6347125232269471</v>
+        <v>0.634712523226947</v>
       </c>
       <c r="P68">
         <v>0.615855655333427</v>
@@ -4177,7 +4177,7 @@
         <v>0.392192866136596</v>
       </c>
       <c r="O73">
-        <v>0.586839461241833</v>
+        <v>0.5868394612418329</v>
       </c>
       <c r="P73">
         <v>0.6245386741103141</v>
@@ -4229,7 +4229,7 @@
         <v>0.420040944135434</v>
       </c>
       <c r="O74">
-        <v>0.64090701299961</v>
+        <v>0.6409070129996099</v>
       </c>
       <c r="P74">
         <v>0.470970599356411</v>
@@ -4388,7 +4388,7 @@
         <v>0.739673931902276</v>
       </c>
       <c r="P77">
-        <v>0.645975548383036</v>
+        <v>0.6459755483830359</v>
       </c>
     </row>
     <row r="78">
@@ -5009,10 +5009,10 @@
         <v>0.610140964209547</v>
       </c>
       <c r="O89">
-        <v>0.612263817701041</v>
+        <v>0.612263817701044</v>
       </c>
       <c r="P89">
-        <v>0.366237449679065</v>
+        <v>0.366237449679069</v>
       </c>
     </row>
     <row r="90">
@@ -5061,7 +5061,7 @@
         <v>0.319444333815874</v>
       </c>
       <c r="O90">
-        <v>0.624460335633575</v>
+        <v>0.6244603356335739</v>
       </c>
       <c r="P90">
         <v>0.09887164636211659</v>
@@ -5113,10 +5113,10 @@
         <v>0.578461547601162</v>
       </c>
       <c r="O91">
-        <v>0.614287361634439</v>
+        <v>0.614287361634434</v>
       </c>
       <c r="P91">
-        <v>0.626161387485767</v>
+        <v>0.626161387485764</v>
       </c>
     </row>
     <row r="92">
@@ -5144,7 +5144,7 @@
         <v>0.212908792442923</v>
       </c>
       <c r="H92">
-        <v>0.683117795328329</v>
+        <v>0.6831177953283289</v>
       </c>
       <c r="I92">
         <v>0.437141405689974</v>
@@ -5165,10 +5165,10 @@
         <v>0.468696129712062</v>
       </c>
       <c r="O92">
-        <v>0.604981564328081</v>
+        <v>0.604981564328086</v>
       </c>
       <c r="P92">
-        <v>0.305243199346575</v>
+        <v>0.305243199346574</v>
       </c>
     </row>
     <row r="93">
@@ -5220,7 +5220,7 @@
         <v>0.616901358926354</v>
       </c>
       <c r="P93">
-        <v>0.732917637339209</v>
+        <v>0.73291763733921</v>
       </c>
     </row>
     <row r="94">
@@ -5269,10 +5269,10 @@
         <v>0.658871414102837</v>
       </c>
       <c r="O94">
-        <v>0.621986220852524</v>
+        <v>0.621986220852528</v>
       </c>
       <c r="P94">
-        <v>0.382774257827597</v>
+        <v>0.382774257827602</v>
       </c>
     </row>
     <row r="95">
@@ -5321,10 +5321,10 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>0.614966836806719</v>
+        <v>0.614966836806723</v>
       </c>
       <c r="P95">
-        <v>0.507610378442241</v>
+        <v>0.50761037844224</v>
       </c>
     </row>
     <row r="96">
@@ -5373,10 +5373,10 @@
         <v>0.72479087774901</v>
       </c>
       <c r="O96">
-        <v>0.627532410301511</v>
+        <v>0.62753241030151</v>
       </c>
       <c r="P96">
-        <v>0.29673841298174</v>
+        <v>0.296738412981738</v>
       </c>
     </row>
     <row r="97">
@@ -5407,7 +5407,7 @@
         <v>0.215528954698813</v>
       </c>
       <c r="I97">
-        <v>0.569368125679586</v>
+        <v>0.5693681256795859</v>
       </c>
       <c r="J97">
         <v>0.361625300836293</v>
@@ -5425,10 +5425,10 @@
         <v>0.497430773503107</v>
       </c>
       <c r="O97">
-        <v>0.605829148734882</v>
+        <v>0.605829148734887</v>
       </c>
       <c r="P97">
-        <v>0.779829657317197</v>
+        <v>0.779829657317202</v>
       </c>
     </row>
     <row r="98">
@@ -5529,10 +5529,10 @@
         <v>0.29875158145441</v>
       </c>
       <c r="O99">
-        <v>0.590716643747327</v>
+        <v>0.590716643747321</v>
       </c>
       <c r="P99">
-        <v>0.641479164245281</v>
+        <v>0.641479164245283</v>
       </c>
     </row>
     <row r="100">
@@ -5581,10 +5581,10 @@
         <v>0.649880028197422</v>
       </c>
       <c r="O100">
-        <v>0.612852099679302</v>
+        <v>0.612852099679304</v>
       </c>
       <c r="P100">
-        <v>0.491040332484091</v>
+        <v>0.491040332484093</v>
       </c>
     </row>
     <row r="101">
@@ -5633,10 +5633,10 @@
         <v>0.61010241287495</v>
       </c>
       <c r="O101">
-        <v>0.60901787783998</v>
+        <v>0.609017877839984</v>
       </c>
       <c r="P101">
-        <v>0.354218670864887</v>
+        <v>0.354218670864879</v>
       </c>
     </row>
     <row r="102">
@@ -5685,7 +5685,7 @@
         <v>0.787204343743616</v>
       </c>
       <c r="O102">
-        <v>0.615480234820759</v>
+        <v>0.615480234820767</v>
       </c>
       <c r="P102">
         <v>0.383056661232042</v>
@@ -5710,7 +5710,7 @@
         <v>0.74993100474636</v>
       </c>
       <c r="F103">
-        <v>0.07981925918525711</v>
+        <v>0.0798192591852571</v>
       </c>
       <c r="G103">
         <v>0.435568867113745</v>
@@ -5737,10 +5737,10 @@
         <v>0.778032890457111</v>
       </c>
       <c r="O103">
-        <v>0.61373370371751</v>
+        <v>0.613733703717507</v>
       </c>
       <c r="P103">
-        <v>0.289835065773166</v>
+        <v>0.289835065773171</v>
       </c>
     </row>
     <row r="104">
@@ -5893,7 +5893,7 @@
         <v>0.289547405503582</v>
       </c>
       <c r="O106">
-        <v>0.604609982024641</v>
+        <v>0.604609982024636</v>
       </c>
       <c r="P106">
         <v>0.126000900562003</v>
@@ -5997,10 +5997,10 @@
         <v>0.492516775731382</v>
       </c>
       <c r="O108">
-        <v>0.617473096010107</v>
+        <v>0.617473096010102</v>
       </c>
       <c r="P108">
-        <v>0.355063479151913</v>
+        <v>0.355063479151916</v>
       </c>
     </row>
     <row r="109">
@@ -6049,10 +6049,10 @@
         <v>0.878739871535925</v>
       </c>
       <c r="O109">
-        <v>0.626232775346195</v>
+        <v>0.626232775346197</v>
       </c>
       <c r="P109">
-        <v>0.490958791685033</v>
+        <v>0.49095879168503</v>
       </c>
     </row>
     <row r="110">
@@ -6101,10 +6101,10 @@
         <v>0.749810796954715</v>
       </c>
       <c r="O110">
-        <v>0.613289963271789</v>
+        <v>0.613289963271799</v>
       </c>
       <c r="P110">
-        <v>0.35135061667648</v>
+        <v>0.351350616676484</v>
       </c>
     </row>
     <row r="111">
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>0.6116126122228061</v>
+        <v>0.6116126122228041</v>
       </c>
       <c r="P111">
         <v>0.300820234647288</v>
@@ -6205,10 +6205,10 @@
         <v>0.54500741242162</v>
       </c>
       <c r="O112">
-        <v>0.5900918697445901</v>
+        <v>0.5900918697445841</v>
       </c>
       <c r="P112">
-        <v>0.356410625390658</v>
+        <v>0.356410625390659</v>
       </c>
     </row>
     <row r="113">
@@ -6257,10 +6257,10 @@
         <v>0.469468330600431</v>
       </c>
       <c r="O113">
-        <v>0.623054673541897</v>
+        <v>0.623054673541899</v>
       </c>
       <c r="P113">
-        <v>0.344946832699007</v>
+        <v>0.344946832699004</v>
       </c>
     </row>
     <row r="114">
@@ -6309,10 +6309,10 @@
         <v>0.762994328075484</v>
       </c>
       <c r="O114">
-        <v>0.627427555955301</v>
+        <v>0.627427555955305</v>
       </c>
       <c r="P114">
-        <v>0.5605824794180581</v>
+        <v>0.5605824794180549</v>
       </c>
     </row>
     <row r="115">
@@ -6361,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>0.614486034957177</v>
+        <v>0.614486034957186</v>
       </c>
       <c r="P115">
-        <v>0.340105248383793</v>
+        <v>0.340105248383795</v>
       </c>
     </row>
     <row r="116">
@@ -6413,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="O116">
-        <v>0.594684173565078</v>
+        <v>0.594684173565075</v>
       </c>
       <c r="P116">
-        <v>0.412701472313593</v>
+        <v>0.412701472313594</v>
       </c>
     </row>
     <row r="117">
@@ -6444,7 +6444,7 @@
         <v>0.364922735495938</v>
       </c>
       <c r="H117">
-        <v>0.6957163825845441</v>
+        <v>0.695716382584544</v>
       </c>
       <c r="I117">
         <v>0.5122809694431451</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="K117">
-        <v>0.6308660177973831</v>
+        <v>0.630866017797383</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -6465,10 +6465,10 @@
         <v>0.870972976075343</v>
       </c>
       <c r="O117">
-        <v>0.6111851439939801</v>
+        <v>0.6111851439939751</v>
       </c>
       <c r="P117">
-        <v>0.787206914508597</v>
+        <v>0.787206914508594</v>
       </c>
     </row>
     <row r="118">
@@ -6517,10 +6517,10 @@
         <v>0.590355648205228</v>
       </c>
       <c r="O118">
-        <v>0.601265013309805</v>
+        <v>0.601265013309808</v>
       </c>
       <c r="P118">
-        <v>0.492471992138357</v>
+        <v>0.49247199213836</v>
       </c>
     </row>
     <row r="119">
@@ -6569,7 +6569,7 @@
         <v>0.39319011748154</v>
       </c>
       <c r="O119">
-        <v>0.607087849253634</v>
+        <v>0.607087849253637</v>
       </c>
       <c r="P119">
         <v>0.606832124304705</v>
@@ -6621,7 +6621,7 @@
         <v>0.245983066902897</v>
       </c>
       <c r="O120">
-        <v>0.61323514961007</v>
+        <v>0.613235149610075</v>
       </c>
       <c r="P120">
         <v>0.43519197626297</v>
@@ -6652,7 +6652,7 @@
         <v>0.998416458526193</v>
       </c>
       <c r="H121">
-        <v>0.501453354595286</v>
+        <v>0.5014533545952859</v>
       </c>
       <c r="I121">
         <v>0.413508486901177</v>
@@ -6676,7 +6676,7 @@
         <v>0.622804494794903</v>
       </c>
       <c r="P121">
-        <v>0.345545094272353</v>
+        <v>0.345545094272343</v>
       </c>
     </row>
     <row r="122">
@@ -6728,7 +6728,7 @@
         <v>0.610205741482222</v>
       </c>
       <c r="P122">
-        <v>0.395484978667436</v>
+        <v>0.395484978667443</v>
       </c>
     </row>
     <row r="123">
@@ -6777,7 +6777,7 @@
         <v>0.382195526879207</v>
       </c>
       <c r="O123">
-        <v>0.614045357989757</v>
+        <v>0.614045357989756</v>
       </c>
       <c r="P123">
         <v>0.286879966307825</v>
@@ -6829,10 +6829,10 @@
         <v>0.334017288085657</v>
       </c>
       <c r="O124">
-        <v>0.6185524773494791</v>
+        <v>0.618552477349479</v>
       </c>
       <c r="P124">
-        <v>0.367038228077328</v>
+        <v>0.367038228077325</v>
       </c>
     </row>
     <row r="125">
@@ -6854,7 +6854,7 @@
         <v>0.326320637144927</v>
       </c>
       <c r="F125">
-        <v>0.0939823750692512</v>
+        <v>0.09398237506925119</v>
       </c>
       <c r="G125">
         <v>0.127000581504239</v>
@@ -6866,7 +6866,7 @@
         <v>0.44827399141053</v>
       </c>
       <c r="J125">
-        <v>0.6642319143012621</v>
+        <v>0.664231914301262</v>
       </c>
       <c r="K125">
         <v>0.332865834059283</v>
@@ -6881,10 +6881,10 @@
         <v>0.436406915518559</v>
       </c>
       <c r="O125">
-        <v>0.62662830555108</v>
+        <v>0.626628305551078</v>
       </c>
       <c r="P125">
-        <v>0.686822676724921</v>
+        <v>0.686822676724912</v>
       </c>
     </row>
     <row r="126">
@@ -6924,7 +6924,7 @@
         <v>0.403632840062059</v>
       </c>
       <c r="L126">
-        <v>0.61416587507379</v>
+        <v>0.6141658750737899</v>
       </c>
       <c r="M126">
         <v>0.227889398866127</v>
@@ -6933,10 +6933,10 @@
         <v>0.459792207939973</v>
       </c>
       <c r="O126">
-        <v>0.6164902445712011</v>
+        <v>0.616490244571205</v>
       </c>
       <c r="P126">
-        <v>0.372087029852746</v>
+        <v>0.372087029852744</v>
       </c>
     </row>
     <row r="127">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="O127">
-        <v>0.6017559535274371</v>
+        <v>0.6017559535274351</v>
       </c>
       <c r="P127">
         <v>0.573215858985475</v>
@@ -7004,7 +7004,7 @@
         <v>0.318159200107687</v>
       </c>
       <c r="D128">
-        <v>0.7656686610383851</v>
+        <v>0.765668661038385</v>
       </c>
       <c r="E128">
         <v>0.432962745352283</v>
@@ -7028,7 +7028,7 @@
         <v>0.566539998330775</v>
       </c>
       <c r="L128">
-        <v>0.8562243304173171</v>
+        <v>0.856224330417317</v>
       </c>
       <c r="M128">
         <v>0.172835251745935</v>
@@ -7037,10 +7037,10 @@
         <v>0.677357666443591</v>
       </c>
       <c r="O128">
-        <v>0.607012749613973</v>
+        <v>0.607012749613976</v>
       </c>
       <c r="P128">
-        <v>0.376505368918504</v>
+        <v>0.376505368918503</v>
       </c>
     </row>
     <row r="129">
@@ -7071,7 +7071,7 @@
         <v>0.257477731622922</v>
       </c>
       <c r="I129">
-        <v>0.9541883252649061</v>
+        <v>0.954188325264906</v>
       </c>
       <c r="J129">
         <v>0.631930407543339</v>
@@ -7092,7 +7092,7 @@
         <v>0.610302022485382</v>
       </c>
       <c r="P129">
-        <v>0.377071316117606</v>
+        <v>0.377071316117608</v>
       </c>
     </row>
     <row r="130">
@@ -7111,7 +7111,7 @@
         <v>0.347238551858847</v>
       </c>
       <c r="E130">
-        <v>0.5525206741097291</v>
+        <v>0.552520674109729</v>
       </c>
       <c r="F130">
         <v>0.109351105548227</v>
@@ -7123,7 +7123,7 @@
         <v>0.376836801454117</v>
       </c>
       <c r="I130">
-        <v>0.604262635897235</v>
+        <v>0.6042626358972349</v>
       </c>
       <c r="J130">
         <v>0.444741137781784</v>
@@ -7141,10 +7141,10 @@
         <v>0.520419873398598</v>
       </c>
       <c r="O130">
-        <v>0.61099277139035</v>
+        <v>0.610992771390345</v>
       </c>
       <c r="P130">
-        <v>0.324953841474247</v>
+        <v>0.324953841474243</v>
       </c>
     </row>
     <row r="131">
@@ -7193,7 +7193,7 @@
         <v>0.258484277892045</v>
       </c>
       <c r="O131">
-        <v>0.606943704900725</v>
+        <v>0.606943704900718</v>
       </c>
       <c r="P131">
         <v>0.357116221277811</v>
@@ -7245,10 +7245,10 @@
         <v>1</v>
       </c>
       <c r="O132">
-        <v>0.623783840118298</v>
+        <v>0.623783840118295</v>
       </c>
       <c r="P132">
-        <v>0.46368223046536</v>
+        <v>0.463682230465367</v>
       </c>
     </row>
     <row r="133">
@@ -7297,10 +7297,10 @@
         <v>0.638727507738396</v>
       </c>
       <c r="O133">
-        <v>0.588766313210189</v>
+        <v>0.588766313210186</v>
       </c>
       <c r="P133">
-        <v>0.5234519621948</v>
+        <v>0.523451962194794</v>
       </c>
     </row>
     <row r="134">
@@ -7349,7 +7349,7 @@
         <v>0.40485837245609</v>
       </c>
       <c r="O134">
-        <v>0.620790445482681</v>
+        <v>0.620790445482683</v>
       </c>
       <c r="P134">
         <v>0.319987673426409</v>
@@ -7401,10 +7401,10 @@
         <v>0.237937716521727</v>
       </c>
       <c r="O135">
-        <v>0.598403466937712</v>
+        <v>0.598403466937714</v>
       </c>
       <c r="P135">
-        <v>0.422144551775878</v>
+        <v>0.422144551775873</v>
       </c>
     </row>
     <row r="136">
@@ -7453,10 +7453,10 @@
         <v>0.638593364601398</v>
       </c>
       <c r="O136">
-        <v>0.605581941720335</v>
+        <v>0.605581941720331</v>
       </c>
       <c r="P136">
-        <v>0.415022461145302</v>
+        <v>0.415022461145307</v>
       </c>
     </row>
     <row r="137">
@@ -7505,10 +7505,10 @@
         <v>0.449468399004355</v>
       </c>
       <c r="O137">
-        <v>0.6085513536055101</v>
+        <v>0.60855135360551</v>
       </c>
       <c r="P137">
-        <v>0.403541874177305</v>
+        <v>0.403541874177301</v>
       </c>
     </row>
     <row r="138">
@@ -7557,10 +7557,10 @@
         <v>0.229296168889935</v>
       </c>
       <c r="O138">
-        <v>0.611084568464293</v>
+        <v>0.611084568464291</v>
       </c>
       <c r="P138">
-        <v>0.464951871838437</v>
+        <v>0.46495187183843</v>
       </c>
     </row>
     <row r="139">
@@ -8233,7 +8233,7 @@
         <v>0.337501170819563</v>
       </c>
       <c r="O151">
-        <v>0.550755710999069</v>
+        <v>0.5507557109990689</v>
       </c>
       <c r="P151">
         <v>0.376036860627246</v>
@@ -8637,7 +8637,7 @@
         <v>0.38588805838135</v>
       </c>
       <c r="K159">
-        <v>0.6694922915389741</v>
+        <v>0.669492291538974</v>
       </c>
       <c r="L159">
         <v>0.461586789392549</v>
@@ -9530,13 +9530,13 @@
         <v>0.325660766095604</v>
       </c>
       <c r="N176">
-        <v>0.6021740169211211</v>
+        <v>0.602174016921121</v>
       </c>
       <c r="O176">
-        <v>0.607513937027848</v>
+        <v>0.607513937027948</v>
       </c>
       <c r="P176">
-        <v>0.418754054350973</v>
+        <v>0.418754054351003</v>
       </c>
     </row>
     <row r="177">
@@ -9585,10 +9585,10 @@
         <v>0.290448033386798</v>
       </c>
       <c r="O177">
-        <v>0.617681401832433</v>
+        <v>0.617681401832383</v>
       </c>
       <c r="P177">
-        <v>0.08967751381569029</v>
+        <v>0.089677513815691</v>
       </c>
     </row>
     <row r="178">
@@ -9637,10 +9637,10 @@
         <v>0.677019918821715</v>
       </c>
       <c r="O178">
-        <v>0.609606182015756</v>
+        <v>0.609606182015882</v>
       </c>
       <c r="P178">
-        <v>0.593607211683269</v>
+        <v>0.59360721168326</v>
       </c>
     </row>
     <row r="179">
@@ -9689,10 +9689,10 @@
         <v>0.536010516915753</v>
       </c>
       <c r="O179">
-        <v>0.599714780768265</v>
+        <v>0.5997147807683501</v>
       </c>
       <c r="P179">
-        <v>0.359081593621791</v>
+        <v>0.35908159362177</v>
       </c>
     </row>
     <row r="180">
@@ -9741,10 +9741,10 @@
         <v>0.455539911540154</v>
       </c>
       <c r="O180">
-        <v>0.613286234031845</v>
+        <v>0.613286234031869</v>
       </c>
       <c r="P180">
-        <v>0.746064795781445</v>
+        <v>0.746064795781414</v>
       </c>
     </row>
     <row r="181">
@@ -9784,7 +9784,7 @@
         <v>0.269912427255925</v>
       </c>
       <c r="L181">
-        <v>0.9765272176784851</v>
+        <v>0.976527217678485</v>
       </c>
       <c r="M181">
         <v>0.21985775577378</v>
@@ -9793,10 +9793,10 @@
         <v>0.638420074482301</v>
       </c>
       <c r="O181">
-        <v>0.615858027545233</v>
+        <v>0.615858027545178</v>
       </c>
       <c r="P181">
-        <v>0.331964802879873</v>
+        <v>0.331964802879865</v>
       </c>
     </row>
     <row r="182">
@@ -9845,10 +9845,10 @@
         <v>1</v>
       </c>
       <c r="O182">
-        <v>0.610823959797846</v>
+        <v>0.610823959797715</v>
       </c>
       <c r="P182">
-        <v>0.520518586048371</v>
+        <v>0.520518586048373</v>
       </c>
     </row>
     <row r="183">
@@ -9897,10 +9897,10 @@
         <v>0.7681083678530261</v>
       </c>
       <c r="O183">
-        <v>0.620346397940595</v>
+        <v>0.620346397940534</v>
       </c>
       <c r="P183">
-        <v>0.402271168759948</v>
+        <v>0.402271168759931</v>
       </c>
     </row>
     <row r="184">
@@ -9949,10 +9949,10 @@
         <v>0.544832152275761</v>
       </c>
       <c r="O184">
-        <v>0.600127377930695</v>
+        <v>0.600127377930682</v>
       </c>
       <c r="P184">
-        <v>0.803920908497296</v>
+        <v>0.803920908497313</v>
       </c>
     </row>
     <row r="185">
@@ -10001,10 +10001,10 @@
         <v>0.325896618001176</v>
       </c>
       <c r="O185">
-        <v>0.619293915889395</v>
+        <v>0.619293915889378</v>
       </c>
       <c r="P185">
-        <v>0.452587640451631</v>
+        <v>0.45258764045164</v>
       </c>
     </row>
     <row r="186">
@@ -10053,10 +10053,10 @@
         <v>0.367841818302309</v>
       </c>
       <c r="O186">
-        <v>0.584128378204147</v>
+        <v>0.5841283782040541</v>
       </c>
       <c r="P186">
-        <v>0.687569328827943</v>
+        <v>0.687569328827932</v>
       </c>
     </row>
     <row r="187">
@@ -10105,10 +10105,10 @@
         <v>0.62440705414566</v>
       </c>
       <c r="O187">
-        <v>0.608019337346256</v>
+        <v>0.608019337346311</v>
       </c>
       <c r="P187">
-        <v>0.440773454238038</v>
+        <v>0.440773454238037</v>
       </c>
     </row>
     <row r="188">
@@ -10157,10 +10157,10 @@
         <v>0.586958507658739</v>
       </c>
       <c r="O188">
-        <v>0.603454283096829</v>
+        <v>0.60345428309674</v>
       </c>
       <c r="P188">
-        <v>0.322763261100705</v>
+        <v>0.322763261100712</v>
       </c>
     </row>
     <row r="189">
@@ -10194,7 +10194,7 @@
         <v>0.440545834345675</v>
       </c>
       <c r="J189">
-        <v>0.539389619110127</v>
+        <v>0.5393896191101269</v>
       </c>
       <c r="K189">
         <v>0.387328404930627</v>
@@ -10209,10 +10209,10 @@
         <v>0.878820171033052</v>
       </c>
       <c r="O189">
-        <v>0.610735293436257</v>
+        <v>0.610735293436198</v>
       </c>
       <c r="P189">
-        <v>0.363858167512061</v>
+        <v>0.363858167512083</v>
       </c>
     </row>
     <row r="190">
@@ -10252,7 +10252,7 @@
         <v>0.919333923897643</v>
       </c>
       <c r="L190">
-        <v>0.854660114389512</v>
+        <v>0.8546601143895119</v>
       </c>
       <c r="M190">
         <v>0.110879390287842</v>
@@ -10261,10 +10261,10 @@
         <v>0.785414961339961</v>
       </c>
       <c r="O190">
-        <v>0.609099697181775</v>
+        <v>0.609099697181826</v>
       </c>
       <c r="P190">
-        <v>0.294135769543636</v>
+        <v>0.29413576954364</v>
       </c>
     </row>
     <row r="191">
@@ -10307,16 +10307,16 @@
         <v>0.339086914921509</v>
       </c>
       <c r="M191">
-        <v>0.8845457054896651</v>
+        <v>0.884545705489665</v>
       </c>
       <c r="N191">
         <v>0.502469841064073</v>
       </c>
       <c r="O191">
-        <v>0.605419680018761</v>
+        <v>0.605419680018711</v>
       </c>
       <c r="P191">
-        <v>0.221448681463638</v>
+        <v>0.221448681463643</v>
       </c>
     </row>
     <row r="192">
@@ -10365,10 +10365,10 @@
         <v>0.310415330802351</v>
       </c>
       <c r="O192">
-        <v>0.608660820759256</v>
+        <v>0.608660820759149</v>
       </c>
       <c r="P192">
-        <v>0.527584304671662</v>
+        <v>0.527584304671691</v>
       </c>
     </row>
     <row r="193">
@@ -10417,10 +10417,10 @@
         <v>0.297235961985937</v>
       </c>
       <c r="O193">
-        <v>0.595996890068451</v>
+        <v>0.59599689006863</v>
       </c>
       <c r="P193">
-        <v>0.1379255383718</v>
+        <v>0.137925538371799</v>
       </c>
     </row>
     <row r="194">
@@ -10463,16 +10463,16 @@
         <v>0.787092816648803</v>
       </c>
       <c r="M194">
-        <v>0.743124993419012</v>
+        <v>0.7431249934190119</v>
       </c>
       <c r="N194">
         <v>0.710620641168955</v>
       </c>
       <c r="O194">
-        <v>0.591135330328635</v>
+        <v>0.5911353303286589</v>
       </c>
       <c r="P194">
-        <v>0.579285179513535</v>
+        <v>0.579285179513531</v>
       </c>
     </row>
     <row r="195">
@@ -10521,10 +10521,10 @@
         <v>0.503952288402442</v>
       </c>
       <c r="O195">
-        <v>0.612261438446956</v>
+        <v>0.612261438446877</v>
       </c>
       <c r="P195">
-        <v>0.406066389006647</v>
+        <v>0.406066389006642</v>
       </c>
     </row>
     <row r="196">
@@ -10573,10 +10573,10 @@
         <v>0.803753409829593</v>
       </c>
       <c r="O196">
-        <v>0.622193276048868</v>
+        <v>0.622193276048804</v>
       </c>
       <c r="P196">
-        <v>0.520745627162</v>
+        <v>0.520745627161997</v>
       </c>
     </row>
     <row r="197">
@@ -10625,10 +10625,10 @@
         <v>0.812159364979704</v>
       </c>
       <c r="O197">
-        <v>0.609588645341953</v>
+        <v>0.60958864534193</v>
       </c>
       <c r="P197">
-        <v>0.374053839471052</v>
+        <v>0.374053839471046</v>
       </c>
     </row>
     <row r="198">
@@ -10674,13 +10674,13 @@
         <v>0.20721568292667</v>
       </c>
       <c r="N198">
-        <v>0.995216689422247</v>
+        <v>0.9952166894222469</v>
       </c>
       <c r="O198">
-        <v>0.608024349294246</v>
+        <v>0.608024349294123</v>
       </c>
       <c r="P198">
-        <v>0.314620103949767</v>
+        <v>0.314620103949749</v>
       </c>
     </row>
     <row r="199">
@@ -10732,7 +10732,7 @@
         <v>0.58528551065785</v>
       </c>
       <c r="P199">
-        <v>0.437884950034259</v>
+        <v>0.43788495003426</v>
       </c>
     </row>
     <row r="200">
@@ -10781,10 +10781,10 @@
         <v>0.433196937120233</v>
       </c>
       <c r="O200">
-        <v>0.617762077872136</v>
+        <v>0.617762077872211</v>
       </c>
       <c r="P200">
-        <v>0.338693987239224</v>
+        <v>0.338693987239248</v>
       </c>
     </row>
     <row r="201">
@@ -10833,10 +10833,10 @@
         <v>0.873028806869074</v>
       </c>
       <c r="O201">
-        <v>0.622123685405289</v>
+        <v>0.622123685405449</v>
       </c>
       <c r="P201">
-        <v>0.443168232486698</v>
+        <v>0.443168232486701</v>
       </c>
     </row>
     <row r="202">
@@ -10885,10 +10885,10 @@
         <v>1</v>
       </c>
       <c r="O202">
-        <v>0.612068762909831</v>
+        <v>0.6120687629099349</v>
       </c>
       <c r="P202">
-        <v>0.257737272716784</v>
+        <v>0.25773727271679</v>
       </c>
     </row>
     <row r="203">
@@ -10937,10 +10937,10 @@
         <v>1</v>
       </c>
       <c r="O203">
-        <v>0.592162189237914</v>
+        <v>0.59216218923792</v>
       </c>
       <c r="P203">
-        <v>0.431202479131183</v>
+        <v>0.431202479131177</v>
       </c>
     </row>
     <row r="204">
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="K204">
-        <v>0.7791853747363901</v>
+        <v>0.77918537473639</v>
       </c>
       <c r="L204">
         <v>0.735012499818375</v>
@@ -10989,10 +10989,10 @@
         <v>0.779227241013056</v>
       </c>
       <c r="O204">
-        <v>0.60525445646156</v>
+        <v>0.6052544564615721</v>
       </c>
       <c r="P204">
-        <v>0.804376977910375</v>
+        <v>0.804376977910384</v>
       </c>
     </row>
     <row r="205">
@@ -11041,10 +11041,10 @@
         <v>0.609298259104452</v>
       </c>
       <c r="O205">
-        <v>0.595664670716033</v>
+        <v>0.595664670716038</v>
       </c>
       <c r="P205">
-        <v>0.487280796031231</v>
+        <v>0.487280796031259</v>
       </c>
     </row>
     <row r="206">
@@ -11096,7 +11096,7 @@
         <v>0.601761800806213</v>
       </c>
       <c r="P206">
-        <v>0.5863256603799441</v>
+        <v>0.586325660379951</v>
       </c>
     </row>
     <row r="207">
@@ -11145,10 +11145,10 @@
         <v>0.24606015724814</v>
       </c>
       <c r="O207">
-        <v>0.60961872567631</v>
+        <v>0.609618725676445</v>
       </c>
       <c r="P207">
-        <v>0.478667835111012</v>
+        <v>0.478667835111029</v>
       </c>
     </row>
     <row r="208">
@@ -11197,10 +11197,10 @@
         <v>0.503318543730391</v>
       </c>
       <c r="O208">
-        <v>0.6187206230387881</v>
+        <v>0.618720623039028</v>
       </c>
       <c r="P208">
-        <v>0.388618698873507</v>
+        <v>0.388618698873496</v>
       </c>
     </row>
     <row r="209">
@@ -11249,10 +11249,10 @@
         <v>0.461357765028751</v>
       </c>
       <c r="O209">
-        <v>0.603093377362845</v>
+        <v>0.6030933773627239</v>
       </c>
       <c r="P209">
-        <v>0.394369795533499</v>
+        <v>0.394369795533484</v>
       </c>
     </row>
     <row r="210">
@@ -11301,10 +11301,10 @@
         <v>0.399598265535147</v>
       </c>
       <c r="O210">
-        <v>0.608319499842871</v>
+        <v>0.608319499842906</v>
       </c>
       <c r="P210">
-        <v>0.349169711797819</v>
+        <v>0.349169711797812</v>
       </c>
     </row>
     <row r="211">
@@ -11353,10 +11353,10 @@
         <v>0.262394016563881</v>
       </c>
       <c r="O211">
-        <v>0.612591508014532</v>
+        <v>0.612591508014601</v>
       </c>
       <c r="P211">
-        <v>0.394389202450238</v>
+        <v>0.394389202450244</v>
       </c>
     </row>
     <row r="212">
@@ -11378,7 +11378,7 @@
         <v>0.339669924501931</v>
       </c>
       <c r="F212">
-        <v>0.0956542790872971</v>
+        <v>0.09565427908729709</v>
       </c>
       <c r="G212">
         <v>0.105133243074748</v>
@@ -11405,10 +11405,10 @@
         <v>0.4780628351206</v>
       </c>
       <c r="O212">
-        <v>0.622613806946573</v>
+        <v>0.622613806946556</v>
       </c>
       <c r="P212">
-        <v>0.607212765715949</v>
+        <v>0.607212765715952</v>
       </c>
     </row>
     <row r="213">
@@ -11448,7 +11448,7 @@
         <v>0.450442608848497</v>
       </c>
       <c r="L213">
-        <v>0.6559990666886481</v>
+        <v>0.655999066688648</v>
       </c>
       <c r="M213">
         <v>0.225444585148419</v>
@@ -11457,10 +11457,10 @@
         <v>0.458873560206676</v>
       </c>
       <c r="O213">
-        <v>0.611198771589704</v>
+        <v>0.611198771589671</v>
       </c>
       <c r="P213">
-        <v>0.437284971423558</v>
+        <v>0.437284971423555</v>
       </c>
     </row>
     <row r="214">
@@ -11509,10 +11509,10 @@
         <v>1</v>
       </c>
       <c r="O214">
-        <v>0.597329802307682</v>
+        <v>0.597329802307739</v>
       </c>
       <c r="P214">
-        <v>0.630427617599743</v>
+        <v>0.6304276175997801</v>
       </c>
     </row>
     <row r="215">
@@ -11561,10 +11561,10 @@
         <v>0.736217309194915</v>
       </c>
       <c r="O215">
-        <v>0.604360195283383</v>
+        <v>0.6043601952834901</v>
       </c>
       <c r="P215">
-        <v>0.40100454879391</v>
+        <v>0.401004548793912</v>
       </c>
     </row>
     <row r="216">
@@ -11613,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="O216">
-        <v>0.600869752955941</v>
+        <v>0.600869752956035</v>
       </c>
       <c r="P216">
-        <v>0.374726005783993</v>
+        <v>0.374726005784011</v>
       </c>
     </row>
     <row r="217">
@@ -11665,10 +11665,10 @@
         <v>0.539242668175268</v>
       </c>
       <c r="O217">
-        <v>0.607074324223546</v>
+        <v>0.607074324223431</v>
       </c>
       <c r="P217">
-        <v>0.345665494385177</v>
+        <v>0.345665494385163</v>
       </c>
     </row>
     <row r="218">
@@ -11717,10 +11717,10 @@
         <v>0.27396839429664</v>
       </c>
       <c r="O218">
-        <v>0.600904123189125</v>
+        <v>0.600904123189052</v>
       </c>
       <c r="P218">
-        <v>0.369070856343286</v>
+        <v>0.36907085634328</v>
       </c>
     </row>
     <row r="219">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="O219">
-        <v>0.615697704883637</v>
+        <v>0.615697704883631</v>
       </c>
       <c r="P219">
         <v>0.473675915910919</v>
@@ -11803,7 +11803,7 @@
         <v>0.485518341106315</v>
       </c>
       <c r="I220">
-        <v>0.9958071452576101</v>
+        <v>0.99580714525761</v>
       </c>
       <c r="J220">
         <v>0.503081547272243</v>
@@ -11821,10 +11821,10 @@
         <v>0.63171360949266</v>
       </c>
       <c r="O220">
-        <v>0.582891398658009</v>
+        <v>0.58289139865811</v>
       </c>
       <c r="P220">
-        <v>0.529019823305122</v>
+        <v>0.529019823305163</v>
       </c>
     </row>
     <row r="221">
@@ -11873,10 +11873,10 @@
         <v>0.391356672902258</v>
       </c>
       <c r="O221">
-        <v>0.615115192722167</v>
+        <v>0.615115192722166</v>
       </c>
       <c r="P221">
-        <v>0.371524718626267</v>
+        <v>0.371524718626259</v>
       </c>
     </row>
     <row r="222">
@@ -11925,10 +11925,10 @@
         <v>0.260414555742632</v>
       </c>
       <c r="O222">
-        <v>0.59452397722393</v>
+        <v>0.594523977223983</v>
       </c>
       <c r="P222">
-        <v>0.402885228998023</v>
+        <v>0.402885228998019</v>
       </c>
     </row>
     <row r="223">
@@ -11977,10 +11977,10 @@
         <v>0.645199560993004</v>
       </c>
       <c r="O223">
-        <v>0.600586216959403</v>
+        <v>0.600586216959432</v>
       </c>
       <c r="P223">
-        <v>0.485967541516514</v>
+        <v>0.485967541516532</v>
       </c>
     </row>
     <row r="224">
@@ -12029,10 +12029,10 @@
         <v>0.481721905452282</v>
       </c>
       <c r="O224">
-        <v>0.604522516106331</v>
+        <v>0.60452251610644</v>
       </c>
       <c r="P224">
-        <v>0.395671544487731</v>
+        <v>0.395671544487734</v>
       </c>
     </row>
     <row r="225">
@@ -12081,10 +12081,10 @@
         <v>0.221311876699469</v>
       </c>
       <c r="O225">
-        <v>0.607921814771672</v>
+        <v>0.607921814771601</v>
       </c>
       <c r="P225">
-        <v>0.443561594679515</v>
+        <v>0.443561594679518</v>
       </c>
     </row>
     <row r="226">
@@ -12133,7 +12133,7 @@
         <v>0.460718789266238</v>
       </c>
       <c r="O226">
-        <v>0.547521461728598</v>
+        <v>0.5475214617285979</v>
       </c>
       <c r="P226">
         <v>0.480298269768512</v>
@@ -12809,7 +12809,7 @@
         <v>0.400118871465032</v>
       </c>
       <c r="O239">
-        <v>0.589436134726458</v>
+        <v>0.5894361347264579</v>
       </c>
       <c r="P239">
         <v>0.572988625723043</v>
@@ -12861,7 +12861,7 @@
         <v>0.428602417998657</v>
       </c>
       <c r="O240">
-        <v>0.5881058352106861</v>
+        <v>0.588105835210686</v>
       </c>
       <c r="P240">
         <v>0.46098897850182</v>
@@ -13124,7 +13124,7 @@
         <v>0.622239719469406</v>
       </c>
       <c r="P245">
-        <v>0.786586049237395</v>
+        <v>0.7865860492373949</v>
       </c>
     </row>
     <row r="246">
@@ -13608,7 +13608,7 @@
         <v>0.443511949906731</v>
       </c>
       <c r="D255">
-        <v>0.5348139732098181</v>
+        <v>0.534813973209818</v>
       </c>
       <c r="E255">
         <v>0.399834039288425</v>
@@ -13800,7 +13800,7 @@
         <v>0.556090378067624</v>
       </c>
       <c r="P258">
-        <v>0.5060212122367011</v>
+        <v>0.506021212236701</v>
       </c>
     </row>
     <row r="259">
@@ -14057,10 +14057,10 @@
         <v>0.663704483806258</v>
       </c>
       <c r="O263">
-        <v>0.607628913860517</v>
+        <v>0.607628913860512</v>
       </c>
       <c r="P263">
-        <v>0.415909684855335</v>
+        <v>0.415909684855341</v>
       </c>
     </row>
     <row r="264">
@@ -14109,10 +14109,10 @@
         <v>0.283669407349726</v>
       </c>
       <c r="O264">
-        <v>0.616774182180176</v>
+        <v>0.616774182180178</v>
       </c>
       <c r="P264">
-        <v>0.0846450226648624</v>
+        <v>0.08464502266486219</v>
       </c>
     </row>
     <row r="265">
@@ -14161,10 +14161,10 @@
         <v>0.704522779764501</v>
       </c>
       <c r="O265">
-        <v>0.609218343363194</v>
+        <v>0.609218343363195</v>
       </c>
       <c r="P265">
-        <v>0.593412308031858</v>
+        <v>0.593412308031853</v>
       </c>
     </row>
     <row r="266">
@@ -14216,7 +14216,7 @@
         <v>0.600098558718525</v>
       </c>
       <c r="P266">
-        <v>0.339773830180108</v>
+        <v>0.339773830180105</v>
       </c>
     </row>
     <row r="267">
@@ -14265,10 +14265,10 @@
         <v>0.438560326611915</v>
       </c>
       <c r="O267">
-        <v>0.611383528839238</v>
+        <v>0.611383528839231</v>
       </c>
       <c r="P267">
-        <v>0.738137204171164</v>
+        <v>0.738137204171161</v>
       </c>
     </row>
     <row r="268">
@@ -14317,10 +14317,10 @@
         <v>0.6522210627346841</v>
       </c>
       <c r="O268">
-        <v>0.615575143836998</v>
+        <v>0.615575143836984</v>
       </c>
       <c r="P268">
-        <v>0.342385331890262</v>
+        <v>0.342385331890258</v>
       </c>
     </row>
     <row r="269">
@@ -14369,10 +14369,10 @@
         <v>1</v>
       </c>
       <c r="O269">
-        <v>0.607663997207918</v>
+        <v>0.607663997207915</v>
       </c>
       <c r="P269">
-        <v>0.463836260524048</v>
+        <v>0.463836260524047</v>
       </c>
     </row>
     <row r="270">
@@ -14418,13 +14418,13 @@
         <v>0.07076156936617781</v>
       </c>
       <c r="N270">
-        <v>0.627933990878973</v>
+        <v>0.6279339908789729</v>
       </c>
       <c r="O270">
-        <v>0.620053186946294</v>
+        <v>0.620053186946297</v>
       </c>
       <c r="P270">
-        <v>0.408885459235093</v>
+        <v>0.408885459235081</v>
       </c>
     </row>
     <row r="271">
@@ -14476,7 +14476,7 @@
         <v>0.600353948880155</v>
       </c>
       <c r="P271">
-        <v>0.765869456326218</v>
+        <v>0.7658694563262179</v>
       </c>
     </row>
     <row r="272">
@@ -14525,10 +14525,10 @@
         <v>0.318596345546977</v>
       </c>
       <c r="O272">
-        <v>0.617241540513487</v>
+        <v>0.617241540513488</v>
       </c>
       <c r="P272">
-        <v>0.427733278491431</v>
+        <v>0.427733278491424</v>
       </c>
     </row>
     <row r="273">
@@ -14577,10 +14577,10 @@
         <v>0.395510750876868</v>
       </c>
       <c r="O273">
-        <v>0.579850789344906</v>
+        <v>0.579850789344901</v>
       </c>
       <c r="P273">
-        <v>0.5833472500845061</v>
+        <v>0.5833472500845019</v>
       </c>
     </row>
     <row r="274">
@@ -14632,7 +14632,7 @@
         <v>0.608616651493596</v>
       </c>
       <c r="P274">
-        <v>0.48776373880348</v>
+        <v>0.487763738803469</v>
       </c>
     </row>
     <row r="275">
@@ -14681,10 +14681,10 @@
         <v>0.550400668480604</v>
       </c>
       <c r="O275">
-        <v>0.603030423591181</v>
+        <v>0.603030423591175</v>
       </c>
       <c r="P275">
-        <v>0.386340023590868</v>
+        <v>0.386340023590864</v>
       </c>
     </row>
     <row r="276">
@@ -14718,7 +14718,7 @@
         <v>0.441055130893043</v>
       </c>
       <c r="J276">
-        <v>0.536990870090087</v>
+        <v>0.5369908700900869</v>
       </c>
       <c r="K276">
         <v>0.396137968566472</v>
@@ -14733,7 +14733,7 @@
         <v>0.909519995559319</v>
       </c>
       <c r="O276">
-        <v>0.609178145917016</v>
+        <v>0.609178145917017</v>
       </c>
       <c r="P276">
         <v>0.387063332417894</v>
@@ -14767,7 +14767,7 @@
         <v>0.467163649148894</v>
       </c>
       <c r="I277">
-        <v>0.646669890207828</v>
+        <v>0.6466698902078279</v>
       </c>
       <c r="J277">
         <v>0.468943637927467</v>
@@ -14785,10 +14785,10 @@
         <v>0.856229824368914</v>
       </c>
       <c r="O277">
-        <v>0.608592544416537</v>
+        <v>0.608592544416531</v>
       </c>
       <c r="P277">
-        <v>0.321291233159915</v>
+        <v>0.32129123315991</v>
       </c>
     </row>
     <row r="278">
@@ -14837,10 +14837,10 @@
         <v>0.408925205053447</v>
       </c>
       <c r="O278">
-        <v>0.605224893421901</v>
+        <v>0.605224893421898</v>
       </c>
       <c r="P278">
-        <v>0.246387778663197</v>
+        <v>0.246387778663194</v>
       </c>
     </row>
     <row r="279">
@@ -14892,7 +14892,7 @@
         <v>0.607590212137782</v>
       </c>
       <c r="P279">
-        <v>0.484696801769962</v>
+        <v>0.484696801769967</v>
       </c>
     </row>
     <row r="280">
@@ -14941,7 +14941,7 @@
         <v>0.316579514523221</v>
       </c>
       <c r="O280">
-        <v>0.60110168957393</v>
+        <v>0.6011016895739369</v>
       </c>
       <c r="P280">
         <v>0.161091665296299</v>
@@ -14996,7 +14996,7 @@
         <v>0.590729058861166</v>
       </c>
       <c r="P281">
-        <v>0.547216761225404</v>
+        <v>0.5472167612254</v>
       </c>
     </row>
     <row r="282">
@@ -15045,10 +15045,10 @@
         <v>0.498975155962381</v>
       </c>
       <c r="O282">
-        <v>0.611045451776709</v>
+        <v>0.611045451776708</v>
       </c>
       <c r="P282">
-        <v>0.339074491218894</v>
+        <v>0.339074491218907</v>
       </c>
     </row>
     <row r="283">
@@ -15097,10 +15097,10 @@
         <v>0.759368856183486</v>
       </c>
       <c r="O283">
-        <v>0.622272767480139</v>
+        <v>0.622272767480137</v>
       </c>
       <c r="P283">
-        <v>0.535214420310605</v>
+        <v>0.535214420310601</v>
       </c>
     </row>
     <row r="284">
@@ -15149,10 +15149,10 @@
         <v>0.869398670420939</v>
       </c>
       <c r="O284">
-        <v>0.608117343097332</v>
+        <v>0.608117343097335</v>
       </c>
       <c r="P284">
-        <v>0.380284582182145</v>
+        <v>0.380284582182159</v>
       </c>
     </row>
     <row r="285">
@@ -15204,7 +15204,7 @@
         <v>0.608682658802398</v>
       </c>
       <c r="P285">
-        <v>0.316309312736237</v>
+        <v>0.31630931273624</v>
       </c>
     </row>
     <row r="286">
@@ -15253,10 +15253,10 @@
         <v>0.503367592926773</v>
       </c>
       <c r="O286">
-        <v>0.585341268453543</v>
+        <v>0.585341268453528</v>
       </c>
       <c r="P286">
-        <v>0.42326034926686</v>
+        <v>0.423260349266867</v>
       </c>
     </row>
     <row r="287">
@@ -15308,7 +15308,7 @@
         <v>0.617394665763679</v>
       </c>
       <c r="P287">
-        <v>0.311392314609576</v>
+        <v>0.311392314609581</v>
       </c>
     </row>
     <row r="288">
@@ -15357,7 +15357,7 @@
         <v>0.812491225030235</v>
       </c>
       <c r="O288">
-        <v>0.619644562572669</v>
+        <v>0.619644562572671</v>
       </c>
       <c r="P288">
         <v>0.563233764663216</v>
@@ -15412,7 +15412,7 @@
         <v>0.611902816785035</v>
       </c>
       <c r="P289">
-        <v>0.265496978543314</v>
+        <v>0.265496978543304</v>
       </c>
     </row>
     <row r="290">
@@ -15461,10 +15461,10 @@
         <v>1</v>
       </c>
       <c r="O290">
-        <v>0.589178393306884</v>
+        <v>0.589178393306892</v>
       </c>
       <c r="P290">
-        <v>0.43608702820773</v>
+        <v>0.436087028207729</v>
       </c>
     </row>
     <row r="291">
@@ -15486,7 +15486,7 @@
         <v>0.375739325484544</v>
       </c>
       <c r="F291">
-        <v>0.06580353062898831</v>
+        <v>0.0658035306289883</v>
       </c>
       <c r="G291">
         <v>0.323656653552788</v>
@@ -15513,10 +15513,10 @@
         <v>0.778563754549377</v>
       </c>
       <c r="O291">
-        <v>0.605206598401198</v>
+        <v>0.605206598401192</v>
       </c>
       <c r="P291">
-        <v>0.647425375101511</v>
+        <v>0.647425375101519</v>
       </c>
     </row>
     <row r="292">
@@ -15565,7 +15565,7 @@
         <v>0.686487785608039</v>
       </c>
       <c r="O292">
-        <v>0.593298781620435</v>
+        <v>0.593298781620438</v>
       </c>
       <c r="P292">
         <v>0.477235309820653</v>
@@ -15617,10 +15617,10 @@
         <v>0.403509272018615</v>
       </c>
       <c r="O293">
-        <v>0.597749569307852</v>
+        <v>0.5977495693078581</v>
       </c>
       <c r="P293">
-        <v>0.560633431917224</v>
+        <v>0.56063343191723</v>
       </c>
     </row>
     <row r="294">
@@ -15651,7 +15651,7 @@
         <v>0.432247069411356</v>
       </c>
       <c r="I294">
-        <v>0.6361007385663881</v>
+        <v>0.636100738566388</v>
       </c>
       <c r="J294">
         <v>0.219858713577945</v>
@@ -15669,10 +15669,10 @@
         <v>0.235435553796239</v>
       </c>
       <c r="O294">
-        <v>0.609646093697073</v>
+        <v>0.609646093697065</v>
       </c>
       <c r="P294">
-        <v>0.42787101381729</v>
+        <v>0.427871013817291</v>
       </c>
     </row>
     <row r="295">
@@ -15721,10 +15721,10 @@
         <v>0.488381032111813</v>
       </c>
       <c r="O295">
-        <v>0.618231543651995</v>
+        <v>0.618231543651992</v>
       </c>
       <c r="P295">
-        <v>0.313476776254442</v>
+        <v>0.31347677625444</v>
       </c>
     </row>
     <row r="296">
@@ -15773,10 +15773,10 @@
         <v>0.462932415761531</v>
       </c>
       <c r="O296">
-        <v>0.602577285747312</v>
+        <v>0.602577285747311</v>
       </c>
       <c r="P296">
-        <v>0.43924068857545</v>
+        <v>0.439240688575455</v>
       </c>
     </row>
     <row r="297">
@@ -15825,10 +15825,10 @@
         <v>0.39621172678671</v>
       </c>
       <c r="O297">
-        <v>0.609984315946137</v>
+        <v>0.609984315946139</v>
       </c>
       <c r="P297">
-        <v>0.411251240644076</v>
+        <v>0.411251240644087</v>
       </c>
     </row>
     <row r="298">
@@ -15877,10 +15877,10 @@
         <v>0.277876890557481</v>
       </c>
       <c r="O298">
-        <v>0.611486538941053</v>
+        <v>0.61148653894105</v>
       </c>
       <c r="P298">
-        <v>0.39539872096142</v>
+        <v>0.395398720961412</v>
       </c>
     </row>
     <row r="299">
@@ -15929,10 +15929,10 @@
         <v>0.499826084854436</v>
       </c>
       <c r="O299">
-        <v>0.622430771007879</v>
+        <v>0.622430771007884</v>
       </c>
       <c r="P299">
-        <v>0.646795035643859</v>
+        <v>0.646795035643862</v>
       </c>
     </row>
     <row r="300">
@@ -15981,10 +15981,10 @@
         <v>0.449654825235035</v>
       </c>
       <c r="O300">
-        <v>0.61017709760332</v>
+        <v>0.610177097603319</v>
       </c>
       <c r="P300">
-        <v>0.388954324998164</v>
+        <v>0.388954324998165</v>
       </c>
     </row>
     <row r="301">
@@ -16088,7 +16088,7 @@
         <v>0.600569099546958</v>
       </c>
       <c r="P302">
-        <v>0.365984745297981</v>
+        <v>0.36598474529797</v>
       </c>
     </row>
     <row r="303">
@@ -16104,7 +16104,7 @@
         <v>0.281348773934206</v>
       </c>
       <c r="D303">
-        <v>0.7926343660862441</v>
+        <v>0.792634366086244</v>
       </c>
       <c r="E303">
         <v>0.646056879102198</v>
@@ -16137,7 +16137,7 @@
         <v>1</v>
       </c>
       <c r="O303">
-        <v>0.601339111606252</v>
+        <v>0.601339111606241</v>
       </c>
       <c r="P303">
         <v>0.437576870683741</v>
@@ -16171,7 +16171,7 @@
         <v>0.32383658457763</v>
       </c>
       <c r="I304">
-        <v>0.6514940887398441</v>
+        <v>0.651494088739844</v>
       </c>
       <c r="J304">
         <v>0.403211567505136</v>
@@ -16189,10 +16189,10 @@
         <v>0.485989687780081</v>
       </c>
       <c r="O304">
-        <v>0.608110515873214</v>
+        <v>0.6081105158732</v>
       </c>
       <c r="P304">
-        <v>0.302627347477096</v>
+        <v>0.302627347477099</v>
       </c>
     </row>
     <row r="305">
@@ -16244,7 +16244,7 @@
         <v>0.598633281124899</v>
       </c>
       <c r="P305">
-        <v>0.348088859106007</v>
+        <v>0.348088859106011</v>
       </c>
     </row>
     <row r="306">
@@ -16275,7 +16275,7 @@
         <v>0.442010956840792</v>
       </c>
       <c r="I306">
-        <v>0.609490043033382</v>
+        <v>0.6094900430333819</v>
       </c>
       <c r="J306">
         <v>0.423838472993847</v>
@@ -16293,10 +16293,10 @@
         <v>1</v>
       </c>
       <c r="O306">
-        <v>0.617646953091302</v>
+        <v>0.617646953091305</v>
       </c>
       <c r="P306">
-        <v>0.484090072531909</v>
+        <v>0.4840900725319</v>
       </c>
     </row>
     <row r="307">
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
       <c r="L307">
-        <v>0.541207082933224</v>
+        <v>0.5412070829332239</v>
       </c>
       <c r="M307">
         <v>0.191512605204234</v>
@@ -16345,10 +16345,10 @@
         <v>0.571061341310805</v>
       </c>
       <c r="O307">
-        <v>0.581985537632461</v>
+        <v>0.58198553763246</v>
       </c>
       <c r="P307">
-        <v>0.490833782411636</v>
+        <v>0.490833782411644</v>
       </c>
     </row>
     <row r="308">
@@ -16397,10 +16397,10 @@
         <v>0.414995528574071</v>
       </c>
       <c r="O308">
-        <v>0.61423046872313</v>
+        <v>0.614230468723129</v>
       </c>
       <c r="P308">
-        <v>0.340029980785121</v>
+        <v>0.34002998078512</v>
       </c>
     </row>
     <row r="309">
@@ -16449,10 +16449,10 @@
         <v>0.267251488796092</v>
       </c>
       <c r="O309">
-        <v>0.596069099105794</v>
+        <v>0.596069099105795</v>
       </c>
       <c r="P309">
-        <v>0.421690039685556</v>
+        <v>0.421690039685562</v>
       </c>
     </row>
     <row r="310">
@@ -16501,10 +16501,10 @@
         <v>0.639394635305272</v>
       </c>
       <c r="O310">
-        <v>0.601643327865715</v>
+        <v>0.6016433278657149</v>
       </c>
       <c r="P310">
-        <v>0.437376249359433</v>
+        <v>0.43737624935944</v>
       </c>
     </row>
     <row r="311">
@@ -16538,7 +16538,7 @@
         <v>0.454084935999923</v>
       </c>
       <c r="J311">
-        <v>0.5716306293635191</v>
+        <v>0.571630629363519</v>
       </c>
       <c r="K311">
         <v>0.640401497440485</v>
@@ -16550,13 +16550,13 @@
         <v>0.226075435525659</v>
       </c>
       <c r="N311">
-        <v>0.50135073095068</v>
+        <v>0.5013507309506799</v>
       </c>
       <c r="O311">
-        <v>0.605598567299549</v>
+        <v>0.605598567299546</v>
       </c>
       <c r="P311">
-        <v>0.406191486974486</v>
+        <v>0.406191486974505</v>
       </c>
     </row>
     <row r="312">
@@ -16605,7 +16605,7 @@
         <v>0.222380885950791</v>
       </c>
       <c r="O312">
-        <v>0.609164807106435</v>
+        <v>0.6091648071064329</v>
       </c>
       <c r="P312">
         <v>0.465064672899631</v>
@@ -17125,7 +17125,7 @@
         <v>0.433050103921706</v>
       </c>
       <c r="O322">
-        <v>0.603067787884978</v>
+        <v>0.6030677878849779</v>
       </c>
       <c r="P322">
         <v>0.483034433454781</v>
@@ -17150,7 +17150,7 @@
         <v>0.394766732829822</v>
       </c>
       <c r="F323">
-        <v>0.517288216388815</v>
+        <v>0.5172882163888149</v>
       </c>
       <c r="G323">
         <v>0.640800103221234</v>
@@ -17462,7 +17462,7 @@
         <v>0.37307487538988</v>
       </c>
       <c r="F329">
-        <v>0.08536777304968631</v>
+        <v>0.0853677730496863</v>
       </c>
       <c r="G329">
         <v>0.498263129001438</v>
@@ -17541,7 +17541,7 @@
         <v>0.452906353139286</v>
       </c>
       <c r="O330">
-        <v>0.5820958465080141</v>
+        <v>0.582095846508014</v>
       </c>
       <c r="P330">
         <v>0.489418431180627</v>
@@ -17587,7 +17587,7 @@
         <v>0.371549690103578</v>
       </c>
       <c r="M331">
-        <v>0.522272034820839</v>
+        <v>0.5222720348208389</v>
       </c>
       <c r="N331">
         <v>0.425254527914421</v>
@@ -18009,7 +18009,7 @@
         <v>0.448822419970134</v>
       </c>
       <c r="O339">
-        <v>0.546191891461203</v>
+        <v>0.5461918914612029</v>
       </c>
       <c r="P339">
         <v>0.449674863266613</v>
@@ -18477,7 +18477,7 @@
         <v>0.429671877960097</v>
       </c>
       <c r="O348">
-        <v>0.5848617947113241</v>
+        <v>0.584861794711324</v>
       </c>
       <c r="P348">
         <v>0.491615480515727</v>

--- a/exercise_OECD_data/2-Final_Data/va_shares_allyears.xlsx
+++ b/exercise_OECD_data/2-Final_Data/va_shares_allyears.xlsx
@@ -485,10 +485,10 @@
         <v>0.589508626720571</v>
       </c>
       <c r="O2">
-        <v>0.616215573611644</v>
+        <v>0.61621557361165</v>
       </c>
       <c r="P2">
-        <v>0.437233183669777</v>
+        <v>0.43723318366977</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         <v>0.336047683639717</v>
       </c>
       <c r="D3">
-        <v>0.535014045956907</v>
+        <v>0.5350140459569071</v>
       </c>
       <c r="E3">
         <v>0.6412910320467941</v>
@@ -537,10 +537,10 @@
         <v>0.352676542959354</v>
       </c>
       <c r="O3">
-        <v>0.627397102411659</v>
+        <v>0.627397102411658</v>
       </c>
       <c r="P3">
-        <v>0.10755974649542</v>
+        <v>0.107559746495422</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         <v>0.332051289046199</v>
       </c>
       <c r="I4">
-        <v>0.5393743757512089</v>
+        <v>0.539374375751209</v>
       </c>
       <c r="J4">
         <v>0.309392788374501</v>
@@ -592,7 +592,7 @@
         <v>0.615994609662787</v>
       </c>
       <c r="P4">
-        <v>0.536006070733572</v>
+        <v>0.536006070733567</v>
       </c>
     </row>
     <row r="5">
@@ -641,10 +641,10 @@
         <v>0.461114505550347</v>
       </c>
       <c r="O5">
-        <v>0.607722204369235</v>
+        <v>0.60772220436924</v>
       </c>
       <c r="P5">
-        <v>0.312477427177281</v>
+        <v>0.312477427177278</v>
       </c>
     </row>
     <row r="6">
@@ -669,7 +669,7 @@
         <v>0.392130937921646</v>
       </c>
       <c r="G6">
-        <v>0.610446020283902</v>
+        <v>0.6104460202839021</v>
       </c>
       <c r="H6">
         <v>0.210889352091276</v>
@@ -693,10 +693,10 @@
         <v>0.42737226809363</v>
       </c>
       <c r="O6">
-        <v>0.6158454097713451</v>
+        <v>0.6158454097713531</v>
       </c>
       <c r="P6">
-        <v>0.712294845553514</v>
+        <v>0.712294845553517</v>
       </c>
     </row>
     <row r="7">
@@ -745,7 +745,7 @@
         <v>0.604992763315079</v>
       </c>
       <c r="O7">
-        <v>0.625043572388283</v>
+        <v>0.62504357238828</v>
       </c>
       <c r="P7">
         <v>0.381196239724356</v>
@@ -797,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0.614590423797742</v>
+        <v>0.614590423797738</v>
       </c>
       <c r="P8">
-        <v>0.5647828896363291</v>
+        <v>0.564782889636317</v>
       </c>
     </row>
     <row r="9">
@@ -849,10 +849,10 @@
         <v>0.627807109477828</v>
       </c>
       <c r="O9">
-        <v>0.63262150154011</v>
+        <v>0.632621501540103</v>
       </c>
       <c r="P9">
-        <v>0.314610601287076</v>
+        <v>0.314610601287072</v>
       </c>
     </row>
     <row r="10">
@@ -901,10 +901,10 @@
         <v>0.497548593103343</v>
       </c>
       <c r="O10">
-        <v>0.607123403536093</v>
+        <v>0.607123403536088</v>
       </c>
       <c r="P10">
-        <v>0.820875886424091</v>
+        <v>0.820875886424095</v>
       </c>
     </row>
     <row r="11">
@@ -953,10 +953,10 @@
         <v>0.314527791832089</v>
       </c>
       <c r="O11">
-        <v>0.624088331571199</v>
+        <v>0.624088331571196</v>
       </c>
       <c r="P11">
-        <v>0.452230038394794</v>
+        <v>0.452230038394802</v>
       </c>
     </row>
     <row r="12">
@@ -1005,10 +1005,10 @@
         <v>0.24109959642255</v>
       </c>
       <c r="O12">
-        <v>0.591450290366496</v>
+        <v>0.591450290366494</v>
       </c>
       <c r="P12">
-        <v>0.697647703633738</v>
+        <v>0.697647703633727</v>
       </c>
     </row>
     <row r="13">
@@ -1057,10 +1057,10 @@
         <v>0.582654627334107</v>
       </c>
       <c r="O13">
-        <v>0.615968724181259</v>
+        <v>0.615968724181253</v>
       </c>
       <c r="P13">
-        <v>0.476121315222098</v>
+        <v>0.476121315222108</v>
       </c>
     </row>
     <row r="14">
@@ -1109,7 +1109,7 @@
         <v>0.511084571614543</v>
       </c>
       <c r="O14">
-        <v>0.6104747012321911</v>
+        <v>0.6104747012321931</v>
       </c>
       <c r="P14">
         <v>0.230859535838676</v>
@@ -1161,10 +1161,10 @@
         <v>0.822785807100812</v>
       </c>
       <c r="O15">
-        <v>0.6160473444236479</v>
+        <v>0.616047344423648</v>
       </c>
       <c r="P15">
-        <v>0.329335351621619</v>
+        <v>0.329335351621613</v>
       </c>
     </row>
     <row r="16">
@@ -1186,7 +1186,7 @@
         <v>0.745316525917381</v>
       </c>
       <c r="F16">
-        <v>0.08887574811028399</v>
+        <v>0.088875748110284</v>
       </c>
       <c r="G16">
         <v>0.512204545982091</v>
@@ -1210,13 +1210,13 @@
         <v>0.14017686545569</v>
       </c>
       <c r="N16">
-        <v>0.75843408379021</v>
+        <v>0.7584340837902101</v>
       </c>
       <c r="O16">
         <v>0.616820817957741</v>
       </c>
       <c r="P16">
-        <v>0.330539010558146</v>
+        <v>0.330539010558147</v>
       </c>
     </row>
     <row r="17">
@@ -1265,10 +1265,10 @@
         <v>0.509133967782752</v>
       </c>
       <c r="O17">
-        <v>0.612426411123425</v>
+        <v>0.612426411123444</v>
       </c>
       <c r="P17">
-        <v>0.221270471453954</v>
+        <v>0.22127047145395</v>
       </c>
     </row>
     <row r="18">
@@ -1320,7 +1320,7 @@
         <v>0.614062326140737</v>
       </c>
       <c r="P18">
-        <v>0.506575714827971</v>
+        <v>0.50657571482798</v>
       </c>
     </row>
     <row r="19">
@@ -1369,7 +1369,7 @@
         <v>0.290198015134387</v>
       </c>
       <c r="O19">
-        <v>0.610070770898412</v>
+        <v>0.610070770898405</v>
       </c>
       <c r="P19">
         <v>0.130672056470649</v>
@@ -1421,10 +1421,10 @@
         <v>0.657016900682315</v>
       </c>
       <c r="O20">
-        <v>0.594680358240592</v>
+        <v>0.594680358240585</v>
       </c>
       <c r="P20">
-        <v>0.591966135313309</v>
+        <v>0.591966135313312</v>
       </c>
     </row>
     <row r="21">
@@ -1473,10 +1473,10 @@
         <v>0.422329037865444</v>
       </c>
       <c r="O21">
-        <v>0.617512712624406</v>
+        <v>0.61751271262441</v>
       </c>
       <c r="P21">
-        <v>0.359260259946412</v>
+        <v>0.359260259946414</v>
       </c>
     </row>
     <row r="22">
@@ -1525,10 +1525,10 @@
         <v>0.8351600998550071</v>
       </c>
       <c r="O22">
-        <v>0.627652779608701</v>
+        <v>0.627652779608709</v>
       </c>
       <c r="P22">
-        <v>0.516024171165377</v>
+        <v>0.516024171165387</v>
       </c>
     </row>
     <row r="23">
@@ -1577,10 +1577,10 @@
         <v>0.706012589705295</v>
       </c>
       <c r="O23">
-        <v>0.614708334830145</v>
+        <v>0.614708334830136</v>
       </c>
       <c r="P23">
-        <v>0.376230191721743</v>
+        <v>0.376230191721753</v>
       </c>
     </row>
     <row r="24">
@@ -1629,10 +1629,10 @@
         <v>0.957084270951253</v>
       </c>
       <c r="O24">
-        <v>0.613944687993216</v>
+        <v>0.613944687993211</v>
       </c>
       <c r="P24">
-        <v>0.363533360418674</v>
+        <v>0.363533360418672</v>
       </c>
     </row>
     <row r="25">
@@ -1681,10 +1681,10 @@
         <v>0.56523539066621</v>
       </c>
       <c r="O25">
-        <v>0.592717021821715</v>
+        <v>0.592717021821727</v>
       </c>
       <c r="P25">
-        <v>0.356320715829061</v>
+        <v>0.356320715829072</v>
       </c>
     </row>
     <row r="26">
@@ -1733,7 +1733,7 @@
         <v>0.457318809882316</v>
       </c>
       <c r="O26">
-        <v>0.625492320932391</v>
+        <v>0.625492320932402</v>
       </c>
       <c r="P26">
         <v>0.293211040494918</v>
@@ -1785,10 +1785,10 @@
         <v>0.720178212562786</v>
       </c>
       <c r="O27">
-        <v>0.629817507333481</v>
+        <v>0.629817507333479</v>
       </c>
       <c r="P27">
-        <v>0.555798241070664</v>
+        <v>0.555798241070661</v>
       </c>
     </row>
     <row r="28">
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0.6165527797528551</v>
+        <v>0.616552779752845</v>
       </c>
       <c r="P28">
-        <v>0.365693010351816</v>
+        <v>0.365693010351823</v>
       </c>
     </row>
     <row r="29">
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.601094383232688</v>
+        <v>0.601094383232669</v>
       </c>
       <c r="P29">
-        <v>0.489713534576053</v>
+        <v>0.489713534576058</v>
       </c>
     </row>
     <row r="30">
@@ -1941,10 +1941,10 @@
         <v>0.822646162592668</v>
       </c>
       <c r="O30">
-        <v>0.613110063823444</v>
+        <v>0.613110063823433</v>
       </c>
       <c r="P30">
-        <v>0.861549440892074</v>
+        <v>0.861549440892071</v>
       </c>
     </row>
     <row r="31">
@@ -1969,7 +1969,7 @@
         <v>0.282617012108511</v>
       </c>
       <c r="G31">
-        <v>0.5162618300145529</v>
+        <v>0.516261830014553</v>
       </c>
       <c r="H31">
         <v>0.220621162300116</v>
@@ -1990,13 +1990,13 @@
         <v>0.0280969148954609</v>
       </c>
       <c r="N31">
-        <v>0.522082488332629</v>
+        <v>0.5220824883326291</v>
       </c>
       <c r="O31">
-        <v>0.601230544807024</v>
+        <v>0.601230544807029</v>
       </c>
       <c r="P31">
-        <v>0.470052479453873</v>
+        <v>0.470052479453868</v>
       </c>
     </row>
     <row r="32">
@@ -2036,7 +2036,7 @@
         <v>0.192289164562755</v>
       </c>
       <c r="L32">
-        <v>0.5771777034414159</v>
+        <v>0.577177703441416</v>
       </c>
       <c r="M32">
         <v>0.269493247404964</v>
@@ -2045,10 +2045,10 @@
         <v>0.385635490974244</v>
       </c>
       <c r="O32">
-        <v>0.608561998213998</v>
+        <v>0.608561998214</v>
       </c>
       <c r="P32">
-        <v>0.529996028914416</v>
+        <v>0.529996028914418</v>
       </c>
     </row>
     <row r="33">
@@ -2097,10 +2097,10 @@
         <v>0.235224780693573</v>
       </c>
       <c r="O33">
-        <v>0.612753496676556</v>
+        <v>0.612753496676559</v>
       </c>
       <c r="P33">
-        <v>0.441014653613527</v>
+        <v>0.44101465361353</v>
       </c>
     </row>
     <row r="34">
@@ -2146,10 +2146,10 @@
         <v>0.460969936158051</v>
       </c>
       <c r="N34">
-        <v>0.5384359726964369</v>
+        <v>0.538435972696437</v>
       </c>
       <c r="O34">
-        <v>0.624364715522414</v>
+        <v>0.624364715522413</v>
       </c>
       <c r="P34">
         <v>0.369227709462004</v>
@@ -2201,10 +2201,10 @@
         <v>0.464739156204939</v>
       </c>
       <c r="O35">
-        <v>0.613305932694152</v>
+        <v>0.613305932694159</v>
       </c>
       <c r="P35">
-        <v>0.316309806380381</v>
+        <v>0.316309806380382</v>
       </c>
     </row>
     <row r="36">
@@ -2253,10 +2253,10 @@
         <v>0.378153405967149</v>
       </c>
       <c r="O36">
-        <v>0.614362712544994</v>
+        <v>0.614362712544993</v>
       </c>
       <c r="P36">
-        <v>0.293500984888778</v>
+        <v>0.293500984888781</v>
       </c>
     </row>
     <row r="37">
@@ -2305,7 +2305,7 @@
         <v>0.31600720461029</v>
       </c>
       <c r="O37">
-        <v>0.619183079504234</v>
+        <v>0.619183079504224</v>
       </c>
       <c r="P37">
         <v>0.458539892316831</v>
@@ -2357,10 +2357,10 @@
         <v>0.426324256589936</v>
       </c>
       <c r="O38">
-        <v>0.6280665621125719</v>
+        <v>0.628066562112566</v>
       </c>
       <c r="P38">
-        <v>0.661391519138026</v>
+        <v>0.661391519138043</v>
       </c>
     </row>
     <row r="39">
@@ -2409,10 +2409,10 @@
         <v>0.42750584476431</v>
       </c>
       <c r="O39">
-        <v>0.617205420564914</v>
+        <v>0.617205420564912</v>
       </c>
       <c r="P39">
-        <v>0.442760391575404</v>
+        <v>0.442760391575423</v>
       </c>
     </row>
     <row r="40">
@@ -2437,10 +2437,10 @@
         <v>0.0614158395471255</v>
       </c>
       <c r="G40">
-        <v>0.566703794650749</v>
+        <v>0.5667037946507491</v>
       </c>
       <c r="H40">
-        <v>0.52984146705524</v>
+        <v>0.5298414670552401</v>
       </c>
       <c r="I40">
         <v>0.435853319984378</v>
@@ -2461,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>0.603274670824169</v>
+        <v>0.603274670824176</v>
       </c>
       <c r="P40">
-        <v>0.607209336727596</v>
+        <v>0.607209336727602</v>
       </c>
     </row>
     <row r="41">
@@ -2513,10 +2513,10 @@
         <v>0.638999907457761</v>
       </c>
       <c r="O41">
-        <v>0.607031783743794</v>
+        <v>0.607031783743791</v>
       </c>
       <c r="P41">
-        <v>0.351468684052787</v>
+        <v>0.351468684052788</v>
       </c>
     </row>
     <row r="42">
@@ -2532,7 +2532,7 @@
         <v>0.236983721086376</v>
       </c>
       <c r="D42">
-        <v>0.590757972862693</v>
+        <v>0.5907579728626931</v>
       </c>
       <c r="E42">
         <v>0.729322207978912</v>
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0.610660984887574</v>
+        <v>0.610660984887589</v>
       </c>
       <c r="P42">
-        <v>0.403576668759018</v>
+        <v>0.403576668759006</v>
       </c>
     </row>
     <row r="43">
@@ -2614,13 +2614,13 @@
         <v>0.309505513577543</v>
       </c>
       <c r="N43">
-        <v>0.5382704599127049</v>
+        <v>0.538270459912705</v>
       </c>
       <c r="O43">
         <v>0.611525832761973</v>
       </c>
       <c r="P43">
-        <v>0.368424652252647</v>
+        <v>0.368424652252644</v>
       </c>
     </row>
     <row r="44">
@@ -2672,7 +2672,7 @@
         <v>0.607256671644532</v>
       </c>
       <c r="P44">
-        <v>0.447264706309073</v>
+        <v>0.447264706309058</v>
       </c>
     </row>
     <row r="45">
@@ -2724,7 +2724,7 @@
         <v>0.625972716135389</v>
       </c>
       <c r="P45">
-        <v>0.5343116946905599</v>
+        <v>0.534311694690552</v>
       </c>
     </row>
     <row r="46">
@@ -2773,10 +2773,10 @@
         <v>0.6736488211946901</v>
       </c>
       <c r="O46">
-        <v>0.589883095442563</v>
+        <v>0.589883095442566</v>
       </c>
       <c r="P46">
-        <v>0.532110595907441</v>
+        <v>0.532110595907444</v>
       </c>
     </row>
     <row r="47">
@@ -2825,10 +2825,10 @@
         <v>0.373428431418967</v>
       </c>
       <c r="O47">
-        <v>0.622833901537998</v>
+        <v>0.622833901538003</v>
       </c>
       <c r="P47">
-        <v>0.348857757882942</v>
+        <v>0.348857757882937</v>
       </c>
     </row>
     <row r="48">
@@ -2880,7 +2880,7 @@
         <v>0.59893618889361</v>
       </c>
       <c r="P48">
-        <v>0.449859684222634</v>
+        <v>0.449859684222641</v>
       </c>
     </row>
     <row r="49">
@@ -2929,10 +2929,10 @@
         <v>0.513752109446463</v>
       </c>
       <c r="O49">
-        <v>0.608833501228807</v>
+        <v>0.608833501228801</v>
       </c>
       <c r="P49">
-        <v>0.434161383955767</v>
+        <v>0.434161383955777</v>
       </c>
     </row>
     <row r="50">
@@ -2981,10 +2981,10 @@
         <v>0.456546765999025</v>
       </c>
       <c r="O50">
-        <v>0.609977740130393</v>
+        <v>0.6099777401304</v>
       </c>
       <c r="P50">
-        <v>0.451753418228396</v>
+        <v>0.451753418228385</v>
       </c>
     </row>
     <row r="51">
@@ -3033,10 +3033,10 @@
         <v>0.243831925704477</v>
       </c>
       <c r="O51">
-        <v>0.612484405943115</v>
+        <v>0.612484405943109</v>
       </c>
       <c r="P51">
-        <v>0.492681585267713</v>
+        <v>0.492681585267729</v>
       </c>
     </row>
     <row r="52">
@@ -3449,7 +3449,7 @@
         <v>0.492710913769279</v>
       </c>
       <c r="O59">
-        <v>0.501400208327421</v>
+        <v>0.5014002083274211</v>
       </c>
       <c r="P59">
         <v>0.49827252484963</v>
@@ -3581,7 +3581,7 @@
         <v>0.521514313282113</v>
       </c>
       <c r="G62">
-        <v>0.6197785228143829</v>
+        <v>0.619778522814383</v>
       </c>
       <c r="H62">
         <v>0.495415897246571</v>
@@ -3764,7 +3764,7 @@
         <v>0.597426721138146</v>
       </c>
       <c r="P65">
-        <v>0.54887855660308</v>
+        <v>0.5488785566030801</v>
       </c>
     </row>
     <row r="66">
@@ -3917,7 +3917,7 @@
         <v>0.564870285021161</v>
       </c>
       <c r="O68">
-        <v>0.634712523226947</v>
+        <v>0.6347125232269471</v>
       </c>
       <c r="P68">
         <v>0.615855655333427</v>
@@ -4177,7 +4177,7 @@
         <v>0.392192866136596</v>
       </c>
       <c r="O73">
-        <v>0.5868394612418329</v>
+        <v>0.586839461241833</v>
       </c>
       <c r="P73">
         <v>0.6245386741103141</v>
@@ -4229,7 +4229,7 @@
         <v>0.420040944135434</v>
       </c>
       <c r="O74">
-        <v>0.6409070129996099</v>
+        <v>0.64090701299961</v>
       </c>
       <c r="P74">
         <v>0.470970599356411</v>
@@ -4388,7 +4388,7 @@
         <v>0.739673931902276</v>
       </c>
       <c r="P77">
-        <v>0.6459755483830359</v>
+        <v>0.645975548383036</v>
       </c>
     </row>
     <row r="78">
@@ -5009,10 +5009,10 @@
         <v>0.610140964209547</v>
       </c>
       <c r="O89">
-        <v>0.612263817701044</v>
+        <v>0.612263817701041</v>
       </c>
       <c r="P89">
-        <v>0.366237449679069</v>
+        <v>0.366237449679065</v>
       </c>
     </row>
     <row r="90">
@@ -5061,7 +5061,7 @@
         <v>0.319444333815874</v>
       </c>
       <c r="O90">
-        <v>0.6244603356335739</v>
+        <v>0.624460335633575</v>
       </c>
       <c r="P90">
         <v>0.09887164636211659</v>
@@ -5113,10 +5113,10 @@
         <v>0.578461547601162</v>
       </c>
       <c r="O91">
-        <v>0.614287361634434</v>
+        <v>0.614287361634439</v>
       </c>
       <c r="P91">
-        <v>0.626161387485764</v>
+        <v>0.626161387485767</v>
       </c>
     </row>
     <row r="92">
@@ -5144,7 +5144,7 @@
         <v>0.212908792442923</v>
       </c>
       <c r="H92">
-        <v>0.6831177953283289</v>
+        <v>0.683117795328329</v>
       </c>
       <c r="I92">
         <v>0.437141405689974</v>
@@ -5165,10 +5165,10 @@
         <v>0.468696129712062</v>
       </c>
       <c r="O92">
-        <v>0.604981564328086</v>
+        <v>0.604981564328081</v>
       </c>
       <c r="P92">
-        <v>0.305243199346574</v>
+        <v>0.305243199346575</v>
       </c>
     </row>
     <row r="93">
@@ -5220,7 +5220,7 @@
         <v>0.616901358926354</v>
       </c>
       <c r="P93">
-        <v>0.73291763733921</v>
+        <v>0.732917637339209</v>
       </c>
     </row>
     <row r="94">
@@ -5269,10 +5269,10 @@
         <v>0.658871414102837</v>
       </c>
       <c r="O94">
-        <v>0.621986220852528</v>
+        <v>0.621986220852524</v>
       </c>
       <c r="P94">
-        <v>0.382774257827602</v>
+        <v>0.382774257827597</v>
       </c>
     </row>
     <row r="95">
@@ -5321,10 +5321,10 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>0.614966836806723</v>
+        <v>0.614966836806719</v>
       </c>
       <c r="P95">
-        <v>0.50761037844224</v>
+        <v>0.507610378442241</v>
       </c>
     </row>
     <row r="96">
@@ -5373,10 +5373,10 @@
         <v>0.72479087774901</v>
       </c>
       <c r="O96">
-        <v>0.62753241030151</v>
+        <v>0.627532410301511</v>
       </c>
       <c r="P96">
-        <v>0.296738412981738</v>
+        <v>0.29673841298174</v>
       </c>
     </row>
     <row r="97">
@@ -5407,7 +5407,7 @@
         <v>0.215528954698813</v>
       </c>
       <c r="I97">
-        <v>0.5693681256795859</v>
+        <v>0.569368125679586</v>
       </c>
       <c r="J97">
         <v>0.361625300836293</v>
@@ -5425,10 +5425,10 @@
         <v>0.497430773503107</v>
       </c>
       <c r="O97">
-        <v>0.605829148734887</v>
+        <v>0.605829148734882</v>
       </c>
       <c r="P97">
-        <v>0.779829657317202</v>
+        <v>0.779829657317197</v>
       </c>
     </row>
     <row r="98">
@@ -5529,10 +5529,10 @@
         <v>0.29875158145441</v>
       </c>
       <c r="O99">
-        <v>0.590716643747321</v>
+        <v>0.590716643747327</v>
       </c>
       <c r="P99">
-        <v>0.641479164245283</v>
+        <v>0.641479164245281</v>
       </c>
     </row>
     <row r="100">
@@ -5581,10 +5581,10 @@
         <v>0.649880028197422</v>
       </c>
       <c r="O100">
-        <v>0.612852099679304</v>
+        <v>0.612852099679302</v>
       </c>
       <c r="P100">
-        <v>0.491040332484093</v>
+        <v>0.491040332484091</v>
       </c>
     </row>
     <row r="101">
@@ -5633,10 +5633,10 @@
         <v>0.61010241287495</v>
       </c>
       <c r="O101">
-        <v>0.609017877839984</v>
+        <v>0.60901787783998</v>
       </c>
       <c r="P101">
-        <v>0.354218670864879</v>
+        <v>0.354218670864887</v>
       </c>
     </row>
     <row r="102">
@@ -5685,7 +5685,7 @@
         <v>0.787204343743616</v>
       </c>
       <c r="O102">
-        <v>0.615480234820767</v>
+        <v>0.615480234820759</v>
       </c>
       <c r="P102">
         <v>0.383056661232042</v>
@@ -5710,7 +5710,7 @@
         <v>0.74993100474636</v>
       </c>
       <c r="F103">
-        <v>0.0798192591852571</v>
+        <v>0.07981925918525711</v>
       </c>
       <c r="G103">
         <v>0.435568867113745</v>
@@ -5737,10 +5737,10 @@
         <v>0.778032890457111</v>
       </c>
       <c r="O103">
-        <v>0.613733703717507</v>
+        <v>0.61373370371751</v>
       </c>
       <c r="P103">
-        <v>0.289835065773171</v>
+        <v>0.289835065773166</v>
       </c>
     </row>
     <row r="104">
@@ -5893,7 +5893,7 @@
         <v>0.289547405503582</v>
       </c>
       <c r="O106">
-        <v>0.604609982024636</v>
+        <v>0.604609982024641</v>
       </c>
       <c r="P106">
         <v>0.126000900562003</v>
@@ -5997,10 +5997,10 @@
         <v>0.492516775731382</v>
       </c>
       <c r="O108">
-        <v>0.617473096010102</v>
+        <v>0.617473096010107</v>
       </c>
       <c r="P108">
-        <v>0.355063479151916</v>
+        <v>0.355063479151913</v>
       </c>
     </row>
     <row r="109">
@@ -6049,10 +6049,10 @@
         <v>0.878739871535925</v>
       </c>
       <c r="O109">
-        <v>0.626232775346197</v>
+        <v>0.626232775346195</v>
       </c>
       <c r="P109">
-        <v>0.49095879168503</v>
+        <v>0.490958791685033</v>
       </c>
     </row>
     <row r="110">
@@ -6101,10 +6101,10 @@
         <v>0.749810796954715</v>
       </c>
       <c r="O110">
-        <v>0.613289963271799</v>
+        <v>0.613289963271789</v>
       </c>
       <c r="P110">
-        <v>0.351350616676484</v>
+        <v>0.35135061667648</v>
       </c>
     </row>
     <row r="111">
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>0.6116126122228041</v>
+        <v>0.6116126122228061</v>
       </c>
       <c r="P111">
         <v>0.300820234647288</v>
@@ -6205,10 +6205,10 @@
         <v>0.54500741242162</v>
       </c>
       <c r="O112">
-        <v>0.5900918697445841</v>
+        <v>0.5900918697445901</v>
       </c>
       <c r="P112">
-        <v>0.356410625390659</v>
+        <v>0.356410625390658</v>
       </c>
     </row>
     <row r="113">
@@ -6257,10 +6257,10 @@
         <v>0.469468330600431</v>
       </c>
       <c r="O113">
-        <v>0.623054673541899</v>
+        <v>0.623054673541897</v>
       </c>
       <c r="P113">
-        <v>0.344946832699004</v>
+        <v>0.344946832699007</v>
       </c>
     </row>
     <row r="114">
@@ -6309,10 +6309,10 @@
         <v>0.762994328075484</v>
       </c>
       <c r="O114">
-        <v>0.627427555955305</v>
+        <v>0.627427555955301</v>
       </c>
       <c r="P114">
-        <v>0.5605824794180549</v>
+        <v>0.5605824794180581</v>
       </c>
     </row>
     <row r="115">
@@ -6361,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>0.614486034957186</v>
+        <v>0.614486034957177</v>
       </c>
       <c r="P115">
-        <v>0.340105248383795</v>
+        <v>0.340105248383793</v>
       </c>
     </row>
     <row r="116">
@@ -6413,10 +6413,10 @@
         <v>1</v>
       </c>
       <c r="O116">
-        <v>0.594684173565075</v>
+        <v>0.594684173565078</v>
       </c>
       <c r="P116">
-        <v>0.412701472313594</v>
+        <v>0.412701472313593</v>
       </c>
     </row>
     <row r="117">
@@ -6444,7 +6444,7 @@
         <v>0.364922735495938</v>
       </c>
       <c r="H117">
-        <v>0.695716382584544</v>
+        <v>0.6957163825845441</v>
       </c>
       <c r="I117">
         <v>0.5122809694431451</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="K117">
-        <v>0.630866017797383</v>
+        <v>0.6308660177973831</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -6465,10 +6465,10 @@
         <v>0.870972976075343</v>
       </c>
       <c r="O117">
-        <v>0.6111851439939751</v>
+        <v>0.6111851439939801</v>
       </c>
       <c r="P117">
-        <v>0.787206914508594</v>
+        <v>0.787206914508597</v>
       </c>
     </row>
     <row r="118">
@@ -6517,10 +6517,10 @@
         <v>0.590355648205228</v>
       </c>
       <c r="O118">
-        <v>0.601265013309808</v>
+        <v>0.601265013309805</v>
       </c>
       <c r="P118">
-        <v>0.49247199213836</v>
+        <v>0.492471992138357</v>
       </c>
     </row>
     <row r="119">
@@ -6569,7 +6569,7 @@
         <v>0.39319011748154</v>
       </c>
       <c r="O119">
-        <v>0.607087849253637</v>
+        <v>0.607087849253634</v>
       </c>
       <c r="P119">
         <v>0.606832124304705</v>
@@ -6621,7 +6621,7 @@
         <v>0.245983066902897</v>
       </c>
       <c r="O120">
-        <v>0.613235149610075</v>
+        <v>0.61323514961007</v>
       </c>
       <c r="P120">
         <v>0.43519197626297</v>
@@ -6652,7 +6652,7 @@
         <v>0.998416458526193</v>
       </c>
       <c r="H121">
-        <v>0.5014533545952859</v>
+        <v>0.501453354595286</v>
       </c>
       <c r="I121">
         <v>0.413508486901177</v>
@@ -6676,7 +6676,7 @@
         <v>0.622804494794903</v>
       </c>
       <c r="P121">
-        <v>0.345545094272343</v>
+        <v>0.345545094272353</v>
       </c>
     </row>
     <row r="122">
@@ -6728,7 +6728,7 @@
         <v>0.610205741482222</v>
       </c>
       <c r="P122">
-        <v>0.395484978667443</v>
+        <v>0.395484978667436</v>
       </c>
     </row>
     <row r="123">
@@ -6777,7 +6777,7 @@
         <v>0.382195526879207</v>
       </c>
       <c r="O123">
-        <v>0.614045357989756</v>
+        <v>0.614045357989757</v>
       </c>
       <c r="P123">
         <v>0.286879966307825</v>
@@ -6829,10 +6829,10 @@
         <v>0.334017288085657</v>
       </c>
       <c r="O124">
-        <v>0.618552477349479</v>
+        <v>0.6185524773494791</v>
       </c>
       <c r="P124">
-        <v>0.367038228077325</v>
+        <v>0.367038228077328</v>
       </c>
     </row>
     <row r="125">
@@ -6854,7 +6854,7 @@
         <v>0.326320637144927</v>
       </c>
       <c r="F125">
-        <v>0.09398237506925119</v>
+        <v>0.0939823750692512</v>
       </c>
       <c r="G125">
         <v>0.127000581504239</v>
@@ -6866,7 +6866,7 @@
         <v>0.44827399141053</v>
       </c>
       <c r="J125">
-        <v>0.664231914301262</v>
+        <v>0.6642319143012621</v>
       </c>
       <c r="K125">
         <v>0.332865834059283</v>
@@ -6881,10 +6881,10 @@
         <v>0.436406915518559</v>
       </c>
       <c r="O125">
-        <v>0.626628305551078</v>
+        <v>0.62662830555108</v>
       </c>
       <c r="P125">
-        <v>0.686822676724912</v>
+        <v>0.686822676724921</v>
       </c>
     </row>
     <row r="126">
@@ -6924,7 +6924,7 @@
         <v>0.403632840062059</v>
       </c>
       <c r="L126">
-        <v>0.6141658750737899</v>
+        <v>0.61416587507379</v>
       </c>
       <c r="M126">
         <v>0.227889398866127</v>
@@ -6933,10 +6933,10 @@
         <v>0.459792207939973</v>
       </c>
       <c r="O126">
-        <v>0.616490244571205</v>
+        <v>0.6164902445712011</v>
       </c>
       <c r="P126">
-        <v>0.372087029852744</v>
+        <v>0.372087029852746</v>
       </c>
     </row>
     <row r="127">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="O127">
-        <v>0.6017559535274351</v>
+        <v>0.6017559535274371</v>
       </c>
       <c r="P127">
         <v>0.573215858985475</v>
@@ -7004,7 +7004,7 @@
         <v>0.318159200107687</v>
       </c>
       <c r="D128">
-        <v>0.765668661038385</v>
+        <v>0.7656686610383851</v>
       </c>
       <c r="E128">
         <v>0.432962745352283</v>
@@ -7028,7 +7028,7 @@
         <v>0.566539998330775</v>
       </c>
       <c r="L128">
-        <v>0.856224330417317</v>
+        <v>0.8562243304173171</v>
       </c>
       <c r="M128">
         <v>0.172835251745935</v>
@@ -7037,10 +7037,10 @@
         <v>0.677357666443591</v>
       </c>
       <c r="O128">
-        <v>0.607012749613976</v>
+        <v>0.607012749613973</v>
       </c>
       <c r="P128">
-        <v>0.376505368918503</v>
+        <v>0.376505368918504</v>
       </c>
     </row>
     <row r="129">
@@ -7071,7 +7071,7 @@
         <v>0.257477731622922</v>
       </c>
       <c r="I129">
-        <v>0.954188325264906</v>
+        <v>0.9541883252649061</v>
       </c>
       <c r="J129">
         <v>0.631930407543339</v>
@@ -7092,7 +7092,7 @@
         <v>0.610302022485382</v>
       </c>
       <c r="P129">
-        <v>0.377071316117608</v>
+        <v>0.377071316117606</v>
       </c>
     </row>
     <row r="130">
@@ -7111,7 +7111,7 @@
         <v>0.347238551858847</v>
       </c>
       <c r="E130">
-        <v>0.552520674109729</v>
+        <v>0.5525206741097291</v>
       </c>
       <c r="F130">
         <v>0.109351105548227</v>
@@ -7123,7 +7123,7 @@
         <v>0.376836801454117</v>
       </c>
       <c r="I130">
-        <v>0.6042626358972349</v>
+        <v>0.604262635897235</v>
       </c>
       <c r="J130">
         <v>0.444741137781784</v>
@@ -7141,10 +7141,10 @@
         <v>0.520419873398598</v>
       </c>
       <c r="O130">
-        <v>0.610992771390345</v>
+        <v>0.61099277139035</v>
       </c>
       <c r="P130">
-        <v>0.324953841474243</v>
+        <v>0.324953841474247</v>
       </c>
     </row>
     <row r="131">
@@ -7193,7 +7193,7 @@
         <v>0.258484277892045</v>
       </c>
       <c r="O131">
-        <v>0.606943704900718</v>
+        <v>0.606943704900725</v>
       </c>
       <c r="P131">
         <v>0.357116221277811</v>
@@ -7245,10 +7245,10 @@
         <v>1</v>
       </c>
       <c r="O132">
-        <v>0.623783840118295</v>
+        <v>0.623783840118298</v>
       </c>
       <c r="P132">
-        <v>0.463682230465367</v>
+        <v>0.46368223046536</v>
       </c>
     </row>
     <row r="133">
@@ -7297,10 +7297,10 @@
         <v>0.638727507738396</v>
       </c>
       <c r="O133">
-        <v>0.588766313210186</v>
+        <v>0.588766313210189</v>
       </c>
       <c r="P133">
-        <v>0.523451962194794</v>
+        <v>0.5234519621948</v>
       </c>
     </row>
     <row r="134">
@@ -7349,7 +7349,7 @@
         <v>0.40485837245609</v>
       </c>
       <c r="O134">
-        <v>0.620790445482683</v>
+        <v>0.620790445482681</v>
       </c>
       <c r="P134">
         <v>0.319987673426409</v>
@@ -7401,10 +7401,10 @@
         <v>0.237937716521727</v>
       </c>
       <c r="O135">
-        <v>0.598403466937714</v>
+        <v>0.598403466937712</v>
       </c>
       <c r="P135">
-        <v>0.422144551775873</v>
+        <v>0.422144551775878</v>
       </c>
     </row>
     <row r="136">
@@ -7453,10 +7453,10 @@
         <v>0.638593364601398</v>
       </c>
       <c r="O136">
-        <v>0.605581941720331</v>
+        <v>0.605581941720335</v>
       </c>
       <c r="P136">
-        <v>0.415022461145307</v>
+        <v>0.415022461145302</v>
       </c>
     </row>
     <row r="137">
@@ -7505,10 +7505,10 @@
         <v>0.449468399004355</v>
       </c>
       <c r="O137">
-        <v>0.60855135360551</v>
+        <v>0.6085513536055101</v>
       </c>
       <c r="P137">
-        <v>0.403541874177301</v>
+        <v>0.403541874177305</v>
       </c>
     </row>
     <row r="138">
@@ -7557,10 +7557,10 @@
         <v>0.229296168889935</v>
       </c>
       <c r="O138">
-        <v>0.611084568464291</v>
+        <v>0.611084568464293</v>
       </c>
       <c r="P138">
-        <v>0.46495187183843</v>
+        <v>0.464951871838437</v>
       </c>
     </row>
     <row r="139">
@@ -8233,7 +8233,7 @@
         <v>0.337501170819563</v>
       </c>
       <c r="O151">
-        <v>0.5507557109990689</v>
+        <v>0.550755710999069</v>
       </c>
       <c r="P151">
         <v>0.376036860627246</v>
@@ -8637,7 +8637,7 @@
         <v>0.38588805838135</v>
       </c>
       <c r="K159">
-        <v>0.669492291538974</v>
+        <v>0.6694922915389741</v>
       </c>
       <c r="L159">
         <v>0.461586789392549</v>
@@ -9530,13 +9530,13 @@
         <v>0.325660766095604</v>
       </c>
       <c r="N176">
-        <v>0.602174016921121</v>
+        <v>0.6021740169211211</v>
       </c>
       <c r="O176">
-        <v>0.607513937027948</v>
+        <v>0.607513937027848</v>
       </c>
       <c r="P176">
-        <v>0.418754054351003</v>
+        <v>0.418754054350973</v>
       </c>
     </row>
     <row r="177">
@@ -9585,10 +9585,10 @@
         <v>0.290448033386798</v>
       </c>
       <c r="O177">
-        <v>0.617681401832383</v>
+        <v>0.617681401832433</v>
       </c>
       <c r="P177">
-        <v>0.089677513815691</v>
+        <v>0.08967751381569029</v>
       </c>
     </row>
     <row r="178">
@@ -9637,10 +9637,10 @@
         <v>0.677019918821715</v>
       </c>
       <c r="O178">
-        <v>0.609606182015882</v>
+        <v>0.609606182015756</v>
       </c>
       <c r="P178">
-        <v>0.59360721168326</v>
+        <v>0.593607211683269</v>
       </c>
     </row>
     <row r="179">
@@ -9689,10 +9689,10 @@
         <v>0.536010516915753</v>
       </c>
       <c r="O179">
-        <v>0.5997147807683501</v>
+        <v>0.599714780768265</v>
       </c>
       <c r="P179">
-        <v>0.35908159362177</v>
+        <v>0.359081593621791</v>
       </c>
     </row>
     <row r="180">
@@ -9741,10 +9741,10 @@
         <v>0.455539911540154</v>
       </c>
       <c r="O180">
-        <v>0.613286234031869</v>
+        <v>0.613286234031845</v>
       </c>
       <c r="P180">
-        <v>0.746064795781414</v>
+        <v>0.746064795781445</v>
       </c>
     </row>
     <row r="181">
@@ -9784,7 +9784,7 @@
         <v>0.269912427255925</v>
       </c>
       <c r="L181">
-        <v>0.976527217678485</v>
+        <v>0.9765272176784851</v>
       </c>
       <c r="M181">
         <v>0.21985775577378</v>
@@ -9793,10 +9793,10 @@
         <v>0.638420074482301</v>
       </c>
       <c r="O181">
-        <v>0.615858027545178</v>
+        <v>0.615858027545233</v>
       </c>
       <c r="P181">
-        <v>0.331964802879865</v>
+        <v>0.331964802879873</v>
       </c>
     </row>
     <row r="182">
@@ -9845,10 +9845,10 @@
         <v>1</v>
       </c>
       <c r="O182">
-        <v>0.610823959797715</v>
+        <v>0.610823959797846</v>
       </c>
       <c r="P182">
-        <v>0.520518586048373</v>
+        <v>0.520518586048371</v>
       </c>
     </row>
     <row r="183">
@@ -9897,10 +9897,10 @@
         <v>0.7681083678530261</v>
       </c>
       <c r="O183">
-        <v>0.620346397940534</v>
+        <v>0.620346397940595</v>
       </c>
       <c r="P183">
-        <v>0.402271168759931</v>
+        <v>0.402271168759948</v>
       </c>
     </row>
     <row r="184">
@@ -9949,10 +9949,10 @@
         <v>0.544832152275761</v>
       </c>
       <c r="O184">
-        <v>0.600127377930682</v>
+        <v>0.600127377930695</v>
       </c>
       <c r="P184">
-        <v>0.803920908497313</v>
+        <v>0.803920908497296</v>
       </c>
     </row>
     <row r="185">
@@ -10001,10 +10001,10 @@
         <v>0.325896618001176</v>
       </c>
       <c r="O185">
-        <v>0.619293915889378</v>
+        <v>0.619293915889395</v>
       </c>
       <c r="P185">
-        <v>0.45258764045164</v>
+        <v>0.452587640451631</v>
       </c>
     </row>
     <row r="186">
@@ -10053,10 +10053,10 @@
         <v>0.367841818302309</v>
       </c>
       <c r="O186">
-        <v>0.5841283782040541</v>
+        <v>0.584128378204147</v>
       </c>
       <c r="P186">
-        <v>0.687569328827932</v>
+        <v>0.687569328827943</v>
       </c>
     </row>
     <row r="187">
@@ -10105,10 +10105,10 @@
         <v>0.62440705414566</v>
       </c>
       <c r="O187">
-        <v>0.608019337346311</v>
+        <v>0.608019337346256</v>
       </c>
       <c r="P187">
-        <v>0.440773454238037</v>
+        <v>0.440773454238038</v>
       </c>
     </row>
     <row r="188">
@@ -10157,10 +10157,10 @@
         <v>0.586958507658739</v>
       </c>
       <c r="O188">
-        <v>0.60345428309674</v>
+        <v>0.603454283096829</v>
       </c>
       <c r="P188">
-        <v>0.322763261100712</v>
+        <v>0.322763261100705</v>
       </c>
     </row>
     <row r="189">
@@ -10194,7 +10194,7 @@
         <v>0.440545834345675</v>
       </c>
       <c r="J189">
-        <v>0.5393896191101269</v>
+        <v>0.539389619110127</v>
       </c>
       <c r="K189">
         <v>0.387328404930627</v>
@@ -10209,10 +10209,10 @@
         <v>0.878820171033052</v>
       </c>
       <c r="O189">
-        <v>0.610735293436198</v>
+        <v>0.610735293436257</v>
       </c>
       <c r="P189">
-        <v>0.363858167512083</v>
+        <v>0.363858167512061</v>
       </c>
     </row>
     <row r="190">
@@ -10252,7 +10252,7 @@
         <v>0.919333923897643</v>
       </c>
       <c r="L190">
-        <v>0.8546601143895119</v>
+        <v>0.854660114389512</v>
       </c>
       <c r="M190">
         <v>0.110879390287842</v>
@@ -10261,10 +10261,10 @@
         <v>0.785414961339961</v>
       </c>
       <c r="O190">
-        <v>0.609099697181826</v>
+        <v>0.609099697181775</v>
       </c>
       <c r="P190">
-        <v>0.29413576954364</v>
+        <v>0.294135769543636</v>
       </c>
     </row>
     <row r="191">
@@ -10307,16 +10307,16 @@
         <v>0.339086914921509</v>
       </c>
       <c r="M191">
-        <v>0.884545705489665</v>
+        <v>0.8845457054896651</v>
       </c>
       <c r="N191">
         <v>0.502469841064073</v>
       </c>
       <c r="O191">
-        <v>0.605419680018711</v>
+        <v>0.605419680018761</v>
       </c>
       <c r="P191">
-        <v>0.221448681463643</v>
+        <v>0.221448681463638</v>
       </c>
     </row>
     <row r="192">
@@ -10365,10 +10365,10 @@
         <v>0.310415330802351</v>
       </c>
       <c r="O192">
-        <v>0.608660820759149</v>
+        <v>0.608660820759256</v>
       </c>
       <c r="P192">
-        <v>0.527584304671691</v>
+        <v>0.527584304671662</v>
       </c>
     </row>
     <row r="193">
@@ -10417,10 +10417,10 @@
         <v>0.297235961985937</v>
       </c>
       <c r="O193">
-        <v>0.59599689006863</v>
+        <v>0.595996890068451</v>
       </c>
       <c r="P193">
-        <v>0.137925538371799</v>
+        <v>0.1379255383718</v>
       </c>
     </row>
     <row r="194">
@@ -10463,16 +10463,16 @@
         <v>0.787092816648803</v>
       </c>
       <c r="M194">
-        <v>0.7431249934190119</v>
+        <v>0.743124993419012</v>
       </c>
       <c r="N194">
         <v>0.710620641168955</v>
       </c>
       <c r="O194">
-        <v>0.5911353303286589</v>
+        <v>0.591135330328635</v>
       </c>
       <c r="P194">
-        <v>0.579285179513531</v>
+        <v>0.579285179513535</v>
       </c>
     </row>
     <row r="195">
@@ -10521,10 +10521,10 @@
         <v>0.503952288402442</v>
       </c>
       <c r="O195">
-        <v>0.612261438446877</v>
+        <v>0.612261438446956</v>
       </c>
       <c r="P195">
-        <v>0.406066389006642</v>
+        <v>0.406066389006647</v>
       </c>
     </row>
     <row r="196">
@@ -10573,10 +10573,10 @@
         <v>0.803753409829593</v>
       </c>
       <c r="O196">
-        <v>0.622193276048804</v>
+        <v>0.622193276048868</v>
       </c>
       <c r="P196">
-        <v>0.520745627161997</v>
+        <v>0.520745627162</v>
       </c>
     </row>
     <row r="197">
@@ -10625,10 +10625,10 @@
         <v>0.812159364979704</v>
       </c>
       <c r="O197">
-        <v>0.60958864534193</v>
+        <v>0.609588645341953</v>
       </c>
       <c r="P197">
-        <v>0.374053839471046</v>
+        <v>0.374053839471052</v>
       </c>
     </row>
     <row r="198">
@@ -10674,13 +10674,13 @@
         <v>0.20721568292667</v>
       </c>
       <c r="N198">
-        <v>0.9952166894222469</v>
+        <v>0.995216689422247</v>
       </c>
       <c r="O198">
-        <v>0.608024349294123</v>
+        <v>0.608024349294246</v>
       </c>
       <c r="P198">
-        <v>0.314620103949749</v>
+        <v>0.314620103949767</v>
       </c>
     </row>
     <row r="199">
@@ -10732,7 +10732,7 @@
         <v>0.58528551065785</v>
       </c>
       <c r="P199">
-        <v>0.43788495003426</v>
+        <v>0.437884950034259</v>
       </c>
     </row>
     <row r="200">
@@ -10781,10 +10781,10 @@
         <v>0.433196937120233</v>
       </c>
       <c r="O200">
-        <v>0.617762077872211</v>
+        <v>0.617762077872136</v>
       </c>
       <c r="P200">
-        <v>0.338693987239248</v>
+        <v>0.338693987239224</v>
       </c>
     </row>
     <row r="201">
@@ -10833,10 +10833,10 @@
         <v>0.873028806869074</v>
       </c>
       <c r="O201">
-        <v>0.622123685405449</v>
+        <v>0.622123685405289</v>
       </c>
       <c r="P201">
-        <v>0.443168232486701</v>
+        <v>0.443168232486698</v>
       </c>
     </row>
     <row r="202">
@@ -10885,10 +10885,10 @@
         <v>1</v>
       </c>
       <c r="O202">
-        <v>0.6120687629099349</v>
+        <v>0.612068762909831</v>
       </c>
       <c r="P202">
-        <v>0.25773727271679</v>
+        <v>0.257737272716784</v>
       </c>
     </row>
     <row r="203">
@@ -10937,10 +10937,10 @@
         <v>1</v>
       </c>
       <c r="O203">
-        <v>0.59216218923792</v>
+        <v>0.592162189237914</v>
       </c>
       <c r="P203">
-        <v>0.431202479131177</v>
+        <v>0.431202479131183</v>
       </c>
     </row>
     <row r="204">
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="K204">
-        <v>0.77918537473639</v>
+        <v>0.7791853747363901</v>
       </c>
       <c r="L204">
         <v>0.735012499818375</v>
@@ -10989,10 +10989,10 @@
         <v>0.779227241013056</v>
       </c>
       <c r="O204">
-        <v>0.6052544564615721</v>
+        <v>0.60525445646156</v>
       </c>
       <c r="P204">
-        <v>0.804376977910384</v>
+        <v>0.804376977910375</v>
       </c>
     </row>
     <row r="205">
@@ -11041,10 +11041,10 @@
         <v>0.609298259104452</v>
       </c>
       <c r="O205">
-        <v>0.595664670716038</v>
+        <v>0.595664670716033</v>
       </c>
       <c r="P205">
-        <v>0.487280796031259</v>
+        <v>0.487280796031231</v>
       </c>
     </row>
     <row r="206">
@@ -11096,7 +11096,7 @@
         <v>0.601761800806213</v>
       </c>
       <c r="P206">
-        <v>0.586325660379951</v>
+        <v>0.5863256603799441</v>
       </c>
     </row>
     <row r="207">
@@ -11145,10 +11145,10 @@
         <v>0.24606015724814</v>
       </c>
       <c r="O207">
-        <v>0.609618725676445</v>
+        <v>0.60961872567631</v>
       </c>
       <c r="P207">
-        <v>0.478667835111029</v>
+        <v>0.478667835111012</v>
       </c>
     </row>
     <row r="208">
@@ -11197,10 +11197,10 @@
         <v>0.503318543730391</v>
       </c>
       <c r="O208">
-        <v>0.618720623039028</v>
+        <v>0.6187206230387881</v>
       </c>
       <c r="P208">
-        <v>0.388618698873496</v>
+        <v>0.388618698873507</v>
       </c>
     </row>
     <row r="209">
@@ -11249,10 +11249,10 @@
         <v>0.461357765028751</v>
       </c>
       <c r="O209">
-        <v>0.6030933773627239</v>
+        <v>0.603093377362845</v>
       </c>
       <c r="P209">
-        <v>0.394369795533484</v>
+        <v>0.394369795533499</v>
       </c>
     </row>
     <row r="210">
@@ -11301,10 +11301,10 @@
         <v>0.399598265535147</v>
       </c>
       <c r="O210">
-        <v>0.608319499842906</v>
+        <v>0.608319499842871</v>
       </c>
       <c r="P210">
-        <v>0.349169711797812</v>
+        <v>0.349169711797819</v>
       </c>
     </row>
     <row r="211">
@@ -11353,10 +11353,10 @@
         <v>0.262394016563881</v>
       </c>
       <c r="O211">
-        <v>0.612591508014601</v>
+        <v>0.612591508014532</v>
       </c>
       <c r="P211">
-        <v>0.394389202450244</v>
+        <v>0.394389202450238</v>
       </c>
     </row>
     <row r="212">
@@ -11378,7 +11378,7 @@
         <v>0.339669924501931</v>
       </c>
       <c r="F212">
-        <v>0.09565427908729709</v>
+        <v>0.0956542790872971</v>
       </c>
       <c r="G212">
         <v>0.105133243074748</v>
@@ -11405,10 +11405,10 @@
         <v>0.4780628351206</v>
       </c>
       <c r="O212">
-        <v>0.622613806946556</v>
+        <v>0.622613806946573</v>
       </c>
       <c r="P212">
-        <v>0.607212765715952</v>
+        <v>0.607212765715949</v>
       </c>
     </row>
     <row r="213">
@@ -11448,7 +11448,7 @@
         <v>0.450442608848497</v>
       </c>
       <c r="L213">
-        <v>0.655999066688648</v>
+        <v>0.6559990666886481</v>
       </c>
       <c r="M213">
         <v>0.225444585148419</v>
@@ -11457,10 +11457,10 @@
         <v>0.458873560206676</v>
       </c>
       <c r="O213">
-        <v>0.611198771589671</v>
+        <v>0.611198771589704</v>
       </c>
       <c r="P213">
-        <v>0.437284971423555</v>
+        <v>0.437284971423558</v>
       </c>
     </row>
     <row r="214">
@@ -11509,10 +11509,10 @@
         <v>1</v>
       </c>
       <c r="O214">
-        <v>0.597329802307739</v>
+        <v>0.597329802307682</v>
       </c>
       <c r="P214">
-        <v>0.6304276175997801</v>
+        <v>0.630427617599743</v>
       </c>
     </row>
     <row r="215">
@@ -11561,10 +11561,10 @@
         <v>0.736217309194915</v>
       </c>
       <c r="O215">
-        <v>0.6043601952834901</v>
+        <v>0.604360195283383</v>
       </c>
       <c r="P215">
-        <v>0.401004548793912</v>
+        <v>0.40100454879391</v>
       </c>
     </row>
     <row r="216">
@@ -11613,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="O216">
-        <v>0.600869752956035</v>
+        <v>0.600869752955941</v>
       </c>
       <c r="P216">
-        <v>0.374726005784011</v>
+        <v>0.374726005783993</v>
       </c>
     </row>
     <row r="217">
@@ -11665,10 +11665,10 @@
         <v>0.539242668175268</v>
       </c>
       <c r="O217">
-        <v>0.607074324223431</v>
+        <v>0.607074324223546</v>
       </c>
       <c r="P217">
-        <v>0.345665494385163</v>
+        <v>0.345665494385177</v>
       </c>
     </row>
     <row r="218">
@@ -11717,10 +11717,10 @@
         <v>0.27396839429664</v>
       </c>
       <c r="O218">
-        <v>0.600904123189052</v>
+        <v>0.600904123189125</v>
       </c>
       <c r="P218">
-        <v>0.36907085634328</v>
+        <v>0.369070856343286</v>
       </c>
     </row>
     <row r="219">
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="O219">
-        <v>0.615697704883631</v>
+        <v>0.615697704883637</v>
       </c>
       <c r="P219">
         <v>0.473675915910919</v>
@@ -11803,7 +11803,7 @@
         <v>0.485518341106315</v>
       </c>
       <c r="I220">
-        <v>0.99580714525761</v>
+        <v>0.9958071452576101</v>
       </c>
       <c r="J220">
         <v>0.503081547272243</v>
@@ -11821,10 +11821,10 @@
         <v>0.63171360949266</v>
       </c>
       <c r="O220">
-        <v>0.58289139865811</v>
+        <v>0.582891398658009</v>
       </c>
       <c r="P220">
-        <v>0.529019823305163</v>
+        <v>0.529019823305122</v>
       </c>
     </row>
     <row r="221">
@@ -11873,10 +11873,10 @@
         <v>0.391356672902258</v>
       </c>
       <c r="O221">
-        <v>0.615115192722166</v>
+        <v>0.615115192722167</v>
       </c>
       <c r="P221">
-        <v>0.371524718626259</v>
+        <v>0.371524718626267</v>
       </c>
     </row>
     <row r="222">
@@ -11925,10 +11925,10 @@
         <v>0.260414555742632</v>
       </c>
       <c r="O222">
-        <v>0.594523977223983</v>
+        <v>0.59452397722393</v>
       </c>
       <c r="P222">
-        <v>0.402885228998019</v>
+        <v>0.402885228998023</v>
       </c>
     </row>
     <row r="223">
@@ -11977,10 +11977,10 @@
         <v>0.645199560993004</v>
       </c>
       <c r="O223">
-        <v>0.600586216959432</v>
+        <v>0.600586216959403</v>
       </c>
       <c r="P223">
-        <v>0.485967541516532</v>
+        <v>0.485967541516514</v>
       </c>
     </row>
     <row r="224">
@@ -12029,10 +12029,10 @@
         <v>0.481721905452282</v>
       </c>
       <c r="O224">
-        <v>0.60452251610644</v>
+        <v>0.604522516106331</v>
       </c>
       <c r="P224">
-        <v>0.395671544487734</v>
+        <v>0.395671544487731</v>
       </c>
     </row>
     <row r="225">
@@ -12081,10 +12081,10 @@
         <v>0.221311876699469</v>
       </c>
       <c r="O225">
-        <v>0.607921814771601</v>
+        <v>0.607921814771672</v>
       </c>
       <c r="P225">
-        <v>0.443561594679518</v>
+        <v>0.443561594679515</v>
       </c>
     </row>
     <row r="226">
@@ -12133,7 +12133,7 @@
         <v>0.460718789266238</v>
       </c>
       <c r="O226">
-        <v>0.5475214617285979</v>
+        <v>0.547521461728598</v>
       </c>
       <c r="P226">
         <v>0.480298269768512</v>
@@ -12809,7 +12809,7 @@
         <v>0.400118871465032</v>
       </c>
       <c r="O239">
-        <v>0.5894361347264579</v>
+        <v>0.589436134726458</v>
       </c>
       <c r="P239">
         <v>0.572988625723043</v>
@@ -12861,7 +12861,7 @@
         <v>0.428602417998657</v>
       </c>
       <c r="O240">
-        <v>0.588105835210686</v>
+        <v>0.5881058352106861</v>
       </c>
       <c r="P240">
         <v>0.46098897850182</v>
@@ -13124,7 +13124,7 @@
         <v>0.622239719469406</v>
       </c>
       <c r="P245">
-        <v>0.7865860492373949</v>
+        <v>0.786586049237395</v>
       </c>
     </row>
     <row r="246">
@@ -13608,7 +13608,7 @@
         <v>0.443511949906731</v>
       </c>
       <c r="D255">
-        <v>0.534813973209818</v>
+        <v>0.5348139732098181</v>
       </c>
       <c r="E255">
         <v>0.399834039288425</v>
@@ -13800,7 +13800,7 @@
         <v>0.556090378067624</v>
       </c>
       <c r="P258">
-        <v>0.506021212236701</v>
+        <v>0.5060212122367011</v>
       </c>
     </row>
     <row r="259">
@@ -14057,10 +14057,10 @@
         <v>0.663704483806258</v>
       </c>
       <c r="O263">
-        <v>0.607628913860512</v>
+        <v>0.607628913860517</v>
       </c>
       <c r="P263">
-        <v>0.415909684855341</v>
+        <v>0.415909684855335</v>
       </c>
     </row>
     <row r="264">
@@ -14109,10 +14109,10 @@
         <v>0.283669407349726</v>
       </c>
       <c r="O264">
-        <v>0.616774182180178</v>
+        <v>0.616774182180176</v>
       </c>
       <c r="P264">
-        <v>0.08464502266486219</v>
+        <v>0.0846450226648624</v>
       </c>
     </row>
     <row r="265">
@@ -14161,10 +14161,10 @@
         <v>0.704522779764501</v>
       </c>
       <c r="O265">
-        <v>0.609218343363195</v>
+        <v>0.609218343363194</v>
       </c>
       <c r="P265">
-        <v>0.593412308031853</v>
+        <v>0.593412308031858</v>
       </c>
     </row>
     <row r="266">
@@ -14216,7 +14216,7 @@
         <v>0.600098558718525</v>
       </c>
       <c r="P266">
-        <v>0.339773830180105</v>
+        <v>0.339773830180108</v>
       </c>
     </row>
     <row r="267">
@@ -14265,10 +14265,10 @@
         <v>0.438560326611915</v>
       </c>
       <c r="O267">
-        <v>0.611383528839231</v>
+        <v>0.611383528839238</v>
       </c>
       <c r="P267">
-        <v>0.738137204171161</v>
+        <v>0.738137204171164</v>
       </c>
     </row>
     <row r="268">
@@ -14317,10 +14317,10 @@
         <v>0.6522210627346841</v>
       </c>
       <c r="O268">
-        <v>0.615575143836984</v>
+        <v>0.615575143836998</v>
       </c>
       <c r="P268">
-        <v>0.342385331890258</v>
+        <v>0.342385331890262</v>
       </c>
     </row>
     <row r="269">
@@ -14369,10 +14369,10 @@
         <v>1</v>
       </c>
       <c r="O269">
-        <v>0.607663997207915</v>
+        <v>0.607663997207918</v>
       </c>
       <c r="P269">
-        <v>0.463836260524047</v>
+        <v>0.463836260524048</v>
       </c>
     </row>
     <row r="270">
@@ -14418,13 +14418,13 @@
         <v>0.07076156936617781</v>
       </c>
       <c r="N270">
-        <v>0.6279339908789729</v>
+        <v>0.627933990878973</v>
       </c>
       <c r="O270">
-        <v>0.620053186946297</v>
+        <v>0.620053186946294</v>
       </c>
       <c r="P270">
-        <v>0.408885459235081</v>
+        <v>0.408885459235093</v>
       </c>
     </row>
     <row r="271">
@@ -14476,7 +14476,7 @@
         <v>0.600353948880155</v>
       </c>
       <c r="P271">
-        <v>0.7658694563262179</v>
+        <v>0.765869456326218</v>
       </c>
     </row>
     <row r="272">
@@ -14525,10 +14525,10 @@
         <v>0.318596345546977</v>
       </c>
       <c r="O272">
-        <v>0.617241540513488</v>
+        <v>0.617241540513487</v>
       </c>
       <c r="P272">
-        <v>0.427733278491424</v>
+        <v>0.427733278491431</v>
       </c>
     </row>
     <row r="273">
@@ -14577,10 +14577,10 @@
         <v>0.395510750876868</v>
       </c>
       <c r="O273">
-        <v>0.579850789344901</v>
+        <v>0.579850789344906</v>
       </c>
       <c r="P273">
-        <v>0.5833472500845019</v>
+        <v>0.5833472500845061</v>
       </c>
     </row>
     <row r="274">
@@ -14632,7 +14632,7 @@
         <v>0.608616651493596</v>
       </c>
       <c r="P274">
-        <v>0.487763738803469</v>
+        <v>0.48776373880348</v>
       </c>
     </row>
     <row r="275">
@@ -14681,10 +14681,10 @@
         <v>0.550400668480604</v>
       </c>
       <c r="O275">
-        <v>0.603030423591175</v>
+        <v>0.603030423591181</v>
       </c>
       <c r="P275">
-        <v>0.386340023590864</v>
+        <v>0.386340023590868</v>
       </c>
     </row>
     <row r="276">
@@ -14718,7 +14718,7 @@
         <v>0.441055130893043</v>
       </c>
       <c r="J276">
-        <v>0.5369908700900869</v>
+        <v>0.536990870090087</v>
       </c>
       <c r="K276">
         <v>0.396137968566472</v>
@@ -14733,7 +14733,7 @@
         <v>0.909519995559319</v>
       </c>
       <c r="O276">
-        <v>0.609178145917017</v>
+        <v>0.609178145917016</v>
       </c>
       <c r="P276">
         <v>0.387063332417894</v>
@@ -14767,7 +14767,7 @@
         <v>0.467163649148894</v>
       </c>
       <c r="I277">
-        <v>0.6466698902078279</v>
+        <v>0.646669890207828</v>
       </c>
       <c r="J277">
         <v>0.468943637927467</v>
@@ -14785,10 +14785,10 @@
         <v>0.856229824368914</v>
       </c>
       <c r="O277">
-        <v>0.608592544416531</v>
+        <v>0.608592544416537</v>
       </c>
       <c r="P277">
-        <v>0.32129123315991</v>
+        <v>0.321291233159915</v>
       </c>
     </row>
     <row r="278">
@@ -14837,10 +14837,10 @@
         <v>0.408925205053447</v>
       </c>
       <c r="O278">
-        <v>0.605224893421898</v>
+        <v>0.605224893421901</v>
       </c>
       <c r="P278">
-        <v>0.246387778663194</v>
+        <v>0.246387778663197</v>
       </c>
     </row>
     <row r="279">
@@ -14892,7 +14892,7 @@
         <v>0.607590212137782</v>
       </c>
       <c r="P279">
-        <v>0.484696801769967</v>
+        <v>0.484696801769962</v>
       </c>
     </row>
     <row r="280">
@@ -14941,7 +14941,7 @@
         <v>0.316579514523221</v>
       </c>
       <c r="O280">
-        <v>0.6011016895739369</v>
+        <v>0.60110168957393</v>
       </c>
       <c r="P280">
         <v>0.161091665296299</v>
@@ -14996,7 +14996,7 @@
         <v>0.590729058861166</v>
       </c>
       <c r="P281">
-        <v>0.5472167612254</v>
+        <v>0.547216761225404</v>
       </c>
     </row>
     <row r="282">
@@ -15045,10 +15045,10 @@
         <v>0.498975155962381</v>
       </c>
       <c r="O282">
-        <v>0.611045451776708</v>
+        <v>0.611045451776709</v>
       </c>
       <c r="P282">
-        <v>0.339074491218907</v>
+        <v>0.339074491218894</v>
       </c>
     </row>
     <row r="283">
@@ -15097,10 +15097,10 @@
         <v>0.759368856183486</v>
       </c>
       <c r="O283">
-        <v>0.622272767480137</v>
+        <v>0.622272767480139</v>
       </c>
       <c r="P283">
-        <v>0.535214420310601</v>
+        <v>0.535214420310605</v>
       </c>
     </row>
     <row r="284">
@@ -15149,10 +15149,10 @@
         <v>0.869398670420939</v>
       </c>
       <c r="O284">
-        <v>0.608117343097335</v>
+        <v>0.608117343097332</v>
       </c>
       <c r="P284">
-        <v>0.380284582182159</v>
+        <v>0.380284582182145</v>
       </c>
     </row>
     <row r="285">
@@ -15204,7 +15204,7 @@
         <v>0.608682658802398</v>
       </c>
       <c r="P285">
-        <v>0.31630931273624</v>
+        <v>0.316309312736237</v>
       </c>
     </row>
     <row r="286">
@@ -15253,10 +15253,10 @@
         <v>0.503367592926773</v>
       </c>
       <c r="O286">
-        <v>0.585341268453528</v>
+        <v>0.585341268453543</v>
       </c>
       <c r="P286">
-        <v>0.423260349266867</v>
+        <v>0.42326034926686</v>
       </c>
     </row>
     <row r="287">
@@ -15308,7 +15308,7 @@
         <v>0.617394665763679</v>
       </c>
       <c r="P287">
-        <v>0.311392314609581</v>
+        <v>0.311392314609576</v>
       </c>
     </row>
     <row r="288">
@@ -15357,7 +15357,7 @@
         <v>0.812491225030235</v>
       </c>
       <c r="O288">
-        <v>0.619644562572671</v>
+        <v>0.619644562572669</v>
       </c>
       <c r="P288">
         <v>0.563233764663216</v>
@@ -15412,7 +15412,7 @@
         <v>0.611902816785035</v>
       </c>
       <c r="P289">
-        <v>0.265496978543304</v>
+        <v>0.265496978543314</v>
       </c>
     </row>
     <row r="290">
@@ -15461,10 +15461,10 @@
         <v>1</v>
       </c>
       <c r="O290">
-        <v>0.589178393306892</v>
+        <v>0.589178393306884</v>
       </c>
       <c r="P290">
-        <v>0.436087028207729</v>
+        <v>0.43608702820773</v>
       </c>
     </row>
     <row r="291">
@@ -15486,7 +15486,7 @@
         <v>0.375739325484544</v>
       </c>
       <c r="F291">
-        <v>0.0658035306289883</v>
+        <v>0.06580353062898831</v>
       </c>
       <c r="G291">
         <v>0.323656653552788</v>
@@ -15513,10 +15513,10 @@
         <v>0.778563754549377</v>
       </c>
       <c r="O291">
-        <v>0.605206598401192</v>
+        <v>0.605206598401198</v>
       </c>
       <c r="P291">
-        <v>0.647425375101519</v>
+        <v>0.647425375101511</v>
       </c>
     </row>
     <row r="292">
@@ -15565,7 +15565,7 @@
         <v>0.686487785608039</v>
       </c>
       <c r="O292">
-        <v>0.593298781620438</v>
+        <v>0.593298781620435</v>
       </c>
       <c r="P292">
         <v>0.477235309820653</v>
@@ -15617,10 +15617,10 @@
         <v>0.403509272018615</v>
       </c>
       <c r="O293">
-        <v>0.5977495693078581</v>
+        <v>0.597749569307852</v>
       </c>
       <c r="P293">
-        <v>0.56063343191723</v>
+        <v>0.560633431917224</v>
       </c>
     </row>
     <row r="294">
@@ -15651,7 +15651,7 @@
         <v>0.432247069411356</v>
       </c>
       <c r="I294">
-        <v>0.636100738566388</v>
+        <v>0.6361007385663881</v>
       </c>
       <c r="J294">
         <v>0.219858713577945</v>
@@ -15669,10 +15669,10 @@
         <v>0.235435553796239</v>
       </c>
       <c r="O294">
-        <v>0.609646093697065</v>
+        <v>0.609646093697073</v>
       </c>
       <c r="P294">
-        <v>0.427871013817291</v>
+        <v>0.42787101381729</v>
       </c>
     </row>
     <row r="295">
@@ -15721,10 +15721,10 @@
         <v>0.488381032111813</v>
       </c>
       <c r="O295">
-        <v>0.618231543651992</v>
+        <v>0.618231543651995</v>
       </c>
       <c r="P295">
-        <v>0.31347677625444</v>
+        <v>0.313476776254442</v>
       </c>
     </row>
     <row r="296">
@@ -15773,10 +15773,10 @@
         <v>0.462932415761531</v>
       </c>
       <c r="O296">
-        <v>0.602577285747311</v>
+        <v>0.602577285747312</v>
       </c>
       <c r="P296">
-        <v>0.439240688575455</v>
+        <v>0.43924068857545</v>
       </c>
     </row>
     <row r="297">
@@ -15825,10 +15825,10 @@
         <v>0.39621172678671</v>
       </c>
       <c r="O297">
-        <v>0.609984315946139</v>
+        <v>0.609984315946137</v>
       </c>
       <c r="P297">
-        <v>0.411251240644087</v>
+        <v>0.411251240644076</v>
       </c>
     </row>
     <row r="298">
@@ -15877,10 +15877,10 @@
         <v>0.277876890557481</v>
       </c>
       <c r="O298">
-        <v>0.61148653894105</v>
+        <v>0.611486538941053</v>
       </c>
       <c r="P298">
-        <v>0.395398720961412</v>
+        <v>0.39539872096142</v>
       </c>
     </row>
     <row r="299">
@@ -15929,10 +15929,10 @@
         <v>0.499826084854436</v>
       </c>
       <c r="O299">
-        <v>0.622430771007884</v>
+        <v>0.622430771007879</v>
       </c>
       <c r="P299">
-        <v>0.646795035643862</v>
+        <v>0.646795035643859</v>
       </c>
     </row>
     <row r="300">
@@ -15981,10 +15981,10 @@
         <v>0.449654825235035</v>
       </c>
       <c r="O300">
-        <v>0.610177097603319</v>
+        <v>0.61017709760332</v>
       </c>
       <c r="P300">
-        <v>0.388954324998165</v>
+        <v>0.388954324998164</v>
       </c>
     </row>
     <row r="301">
@@ -16088,7 +16088,7 @@
         <v>0.600569099546958</v>
       </c>
       <c r="P302">
-        <v>0.36598474529797</v>
+        <v>0.365984745297981</v>
       </c>
     </row>
     <row r="303">
@@ -16104,7 +16104,7 @@
         <v>0.281348773934206</v>
       </c>
       <c r="D303">
-        <v>0.792634366086244</v>
+        <v>0.7926343660862441</v>
       </c>
       <c r="E303">
         <v>0.646056879102198</v>
@@ -16137,7 +16137,7 @@
         <v>1</v>
       </c>
       <c r="O303">
-        <v>0.601339111606241</v>
+        <v>0.601339111606252</v>
       </c>
       <c r="P303">
         <v>0.437576870683741</v>
@@ -16171,7 +16171,7 @@
         <v>0.32383658457763</v>
       </c>
       <c r="I304">
-        <v>0.651494088739844</v>
+        <v>0.6514940887398441</v>
       </c>
       <c r="J304">
         <v>0.403211567505136</v>
@@ -16189,10 +16189,10 @@
         <v>0.485989687780081</v>
       </c>
       <c r="O304">
-        <v>0.6081105158732</v>
+        <v>0.608110515873214</v>
       </c>
       <c r="P304">
-        <v>0.302627347477099</v>
+        <v>0.302627347477096</v>
       </c>
     </row>
     <row r="305">
@@ -16244,7 +16244,7 @@
         <v>0.598633281124899</v>
       </c>
       <c r="P305">
-        <v>0.348088859106011</v>
+        <v>0.348088859106007</v>
       </c>
     </row>
     <row r="306">
@@ -16275,7 +16275,7 @@
         <v>0.442010956840792</v>
       </c>
       <c r="I306">
-        <v>0.6094900430333819</v>
+        <v>0.609490043033382</v>
       </c>
       <c r="J306">
         <v>0.423838472993847</v>
@@ -16293,10 +16293,10 @@
         <v>1</v>
       </c>
       <c r="O306">
-        <v>0.617646953091305</v>
+        <v>0.617646953091302</v>
       </c>
       <c r="P306">
-        <v>0.4840900725319</v>
+        <v>0.484090072531909</v>
       </c>
     </row>
     <row r="307">
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
       <c r="L307">
-        <v>0.5412070829332239</v>
+        <v>0.541207082933224</v>
       </c>
       <c r="M307">
         <v>0.191512605204234</v>
@@ -16345,10 +16345,10 @@
         <v>0.571061341310805</v>
       </c>
       <c r="O307">
-        <v>0.58198553763246</v>
+        <v>0.581985537632461</v>
       </c>
       <c r="P307">
-        <v>0.490833782411644</v>
+        <v>0.490833782411636</v>
       </c>
     </row>
     <row r="308">
@@ -16397,10 +16397,10 @@
         <v>0.414995528574071</v>
       </c>
       <c r="O308">
-        <v>0.614230468723129</v>
+        <v>0.61423046872313</v>
       </c>
       <c r="P308">
-        <v>0.34002998078512</v>
+        <v>0.340029980785121</v>
       </c>
     </row>
     <row r="309">
@@ -16449,10 +16449,10 @@
         <v>0.267251488796092</v>
       </c>
       <c r="O309">
-        <v>0.596069099105795</v>
+        <v>0.596069099105794</v>
       </c>
       <c r="P309">
-        <v>0.421690039685562</v>
+        <v>0.421690039685556</v>
       </c>
     </row>
     <row r="310">
@@ -16501,10 +16501,10 @@
         <v>0.639394635305272</v>
       </c>
       <c r="O310">
-        <v>0.6016433278657149</v>
+        <v>0.601643327865715</v>
       </c>
       <c r="P310">
-        <v>0.43737624935944</v>
+        <v>0.437376249359433</v>
       </c>
     </row>
     <row r="311">
@@ -16538,7 +16538,7 @@
         <v>0.454084935999923</v>
       </c>
       <c r="J311">
-        <v>0.571630629363519</v>
+        <v>0.5716306293635191</v>
       </c>
       <c r="K311">
         <v>0.640401497440485</v>
@@ -16550,13 +16550,13 @@
         <v>0.226075435525659</v>
       </c>
       <c r="N311">
-        <v>0.5013507309506799</v>
+        <v>0.50135073095068</v>
       </c>
       <c r="O311">
-        <v>0.605598567299546</v>
+        <v>0.605598567299549</v>
       </c>
       <c r="P311">
-        <v>0.406191486974505</v>
+        <v>0.406191486974486</v>
       </c>
     </row>
     <row r="312">
@@ -16605,7 +16605,7 @@
         <v>0.222380885950791</v>
       </c>
       <c r="O312">
-        <v>0.6091648071064329</v>
+        <v>0.609164807106435</v>
       </c>
       <c r="P312">
         <v>0.465064672899631</v>
@@ -17125,7 +17125,7 @@
         <v>0.433050103921706</v>
       </c>
       <c r="O322">
-        <v>0.6030677878849779</v>
+        <v>0.603067787884978</v>
       </c>
       <c r="P322">
         <v>0.483034433454781</v>
@@ -17150,7 +17150,7 @@
         <v>0.394766732829822</v>
       </c>
       <c r="F323">
-        <v>0.5172882163888149</v>
+        <v>0.517288216388815</v>
       </c>
       <c r="G323">
         <v>0.640800103221234</v>
@@ -17462,7 +17462,7 @@
         <v>0.37307487538988</v>
       </c>
       <c r="F329">
-        <v>0.0853677730496863</v>
+        <v>0.08536777304968631</v>
       </c>
       <c r="G329">
         <v>0.498263129001438</v>
@@ -17541,7 +17541,7 @@
         <v>0.452906353139286</v>
       </c>
       <c r="O330">
-        <v>0.582095846508014</v>
+        <v>0.5820958465080141</v>
       </c>
       <c r="P330">
         <v>0.489418431180627</v>
@@ -17587,7 +17587,7 @@
         <v>0.371549690103578</v>
       </c>
       <c r="M331">
-        <v>0.5222720348208389</v>
+        <v>0.522272034820839</v>
       </c>
       <c r="N331">
         <v>0.425254527914421</v>
@@ -18009,7 +18009,7 @@
         <v>0.448822419970134</v>
       </c>
       <c r="O339">
-        <v>0.5461918914612029</v>
+        <v>0.546191891461203</v>
       </c>
       <c r="P339">
         <v>0.449674863266613</v>
@@ -18477,7 +18477,7 @@
         <v>0.429671877960097</v>
       </c>
       <c r="O348">
-        <v>0.584861794711324</v>
+        <v>0.5848617947113241</v>
       </c>
       <c r="P348">
         <v>0.491615480515727</v>
